--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_running.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_running.xlsx
@@ -997,130 +997,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.33333333333334</v>
+        <v>36.34610190226297</v>
       </c>
       <c r="C2" t="n">
-        <v>23.94444444444444</v>
+        <v>22.10536534110366</v>
       </c>
       <c r="D2" t="n">
-        <v>1.366388888888889</v>
+        <v>1.261082387511449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2812493475592702</v>
       </c>
       <c r="F2" t="n">
-        <v>13.47222222222222</v>
+        <v>12.47890786820665</v>
       </c>
       <c r="G2" t="n">
-        <v>7.583333333333333</v>
+        <v>7.020379355951786</v>
       </c>
       <c r="H2" t="n">
-        <v>1.777777777777778</v>
+        <v>1.648274172163109</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3811111111111111</v>
+        <v>0.3527592898891315</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108333333333333</v>
+        <v>0.1953074504938768</v>
       </c>
       <c r="K2" t="n">
-        <v>6.638888888888889</v>
+        <v>6.136746654049414</v>
       </c>
       <c r="L2" t="n">
-        <v>3.861111111111111</v>
+        <v>3.573441939361512</v>
       </c>
       <c r="M2" t="n">
-        <v>64.30555555555556</v>
+        <v>59.44523761782513</v>
       </c>
       <c r="N2" t="n">
-        <v>14.63888888888889</v>
+        <v>13.5192252156258</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9494444444444444</v>
+        <v>0.8774398233630581</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2816641804660757</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.30555555555556</v>
+        <v>21.51496915329791</v>
       </c>
       <c r="R2" t="n">
-        <v>18.69444444444444</v>
+        <v>17.24808320059583</v>
       </c>
       <c r="S2" t="n">
-        <v>2.361111111111111</v>
+        <v>2.181433498107151</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2855555555555556</v>
+        <v>0.2640018278925225</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2191666666666667</v>
+        <v>0.2026067251016182</v>
       </c>
       <c r="V2" t="n">
-        <v>3.861111111111111</v>
+        <v>3.571124764926369</v>
       </c>
       <c r="W2" t="n">
-        <v>2.722222222222222</v>
+        <v>2.518642675461245</v>
       </c>
       <c r="X2" t="n">
-        <v>41.61111111111111</v>
+        <v>38.40720500602711</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.916666666666667</v>
+        <v>7.297228731187876</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.54</v>
+        <v>0.4983036906735408</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1289303000886975</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.72222222222222</v>
+        <v>13.59784385802713</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.83333333333333</v>
+        <v>11.86176538940869</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.25</v>
+        <v>1.164112571525488</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1516666666666667</v>
+        <v>0.1400452859748059</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1219444444444444</v>
+        <v>0.1126030755119558</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.848607231252318</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.555555555555556</v>
+        <v>1.437142761068413</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.75</v>
+        <v>15.43458616468343</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05805555555555555</v>
+        <v>0.05351970212468706</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07945107128161499</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.583333333333333</v>
+        <v>6.985879965854584</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.638888888888889</v>
+        <v>6.109094125042429</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3067034822481946</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02305555555555556</v>
+        <v>0.02128820047285048</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01888888888888889</v>
+        <v>0.01739662894292155</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1129,202 +1129,202 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>31.47222222222222</v>
+        <v>29.09392548066904</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3092336875062711</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1013888888888889</v>
+        <v>0.09361168965002603</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04939399762792304</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.66666666666667</v>
+        <v>10.790940235587</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10.17596283148422</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.25</v>
+        <v>0.2257538710141618</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.03833333333333334</v>
+        <v>0.0354151513549677</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.03527777777777778</v>
+        <v>0.03254926241906864</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1560474093617657</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1284078294833799</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.25</v>
+        <v>5.762135831260078</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.888888888888889</v>
+        <v>1.744954995460949</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1316666666666667</v>
+        <v>0.1216098726373428</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1553557302765211</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.777777777777778</v>
+        <v>2.563319763376393</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.055555555555555</v>
+        <v>1.895104796054546</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4896261218034156</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.055</v>
+        <v>0.05086063132655679</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.04</v>
+        <v>0.03697047065760556</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7205948980615848</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4894120591743489</v>
       </c>
       <c r="BP2" t="n">
-        <v>14.5</v>
+        <v>13.40000972745042</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.444444444444445</v>
+        <v>2.263195223733467</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.2158333333333333</v>
+        <v>0.1991354183417316</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0766410718389569</v>
       </c>
       <c r="BT2" t="n">
-        <v>7.416666666666667</v>
+        <v>6.854437186593263</v>
       </c>
       <c r="BU2" t="n">
-        <v>6.444444444444445</v>
+        <v>5.956274831570713</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6662260151454031</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1061111111111111</v>
+        <v>0.09783996232155556</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.09277777777777778</v>
+        <v>0.08540938211099032</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0.9220285909180708</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.7892817627287116</v>
       </c>
       <c r="CA2" t="n">
-        <v>16.27777777777778</v>
+        <v>15.031296887292</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01222222222222222</v>
+        <v>0.01120748830260677</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>6.833333333333333</v>
+        <v>6.313957627411425</v>
       </c>
       <c r="CF2" t="n">
-        <v>6.555555555555555</v>
+        <v>6.059285528387432</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2056551314638435</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.004722222222222221</v>
+        <v>0.004334007209483902</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.003055555555555556</v>
+        <v>0.002813990939647684</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>10.75</v>
+        <v>9.913444887338169</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7182621441231397</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.1002777777777778</v>
+        <v>0.09237078610358058</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.75</v>
+        <v>2.539552280791956</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.222222222222222</v>
+        <v>2.053419964614801</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1017493214883407</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0275</v>
+        <v>0.02540715251565443</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02111111111111111</v>
+        <v>0.01952106937292484</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3055408870567975</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.25</v>
+        <v>0.2285236402588672</v>
       </c>
       <c r="CW2" t="n">
-        <v>32</v>
+        <v>29.57944575914502</v>
       </c>
       <c r="CX2" t="n">
-        <v>30.83333333333333</v>
+        <v>28.49622549239356</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.5925</v>
+        <v>2.404157260853393</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2840051940303266</v>
       </c>
       <c r="DA2" t="n">
-        <v>8.5</v>
+        <v>7.851359385700273</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.555555555555555</v>
+        <v>3.296753238617268</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.666666666666667</v>
+        <v>1.538359673522937</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.6933333333333334</v>
+        <v>0.6405721086651732</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.2425</v>
+        <v>0.2245360109816772</v>
       </c>
       <c r="DF2" t="n">
-        <v>8.222222222222221</v>
+        <v>7.592357700084228</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.472222222222222</v>
+        <v>3.219896002984794</v>
       </c>
     </row>
     <row r="3">
@@ -1334,262 +1334,262 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.55263157894737</v>
+        <v>30.56867165530347</v>
       </c>
       <c r="C3" t="n">
-        <v>16.84210526315789</v>
+        <v>15.3360798057525</v>
       </c>
       <c r="D3" t="n">
-        <v>1.042631578947368</v>
+        <v>0.948362731690545</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.333572130521296</v>
       </c>
       <c r="F3" t="n">
-        <v>15.78947368421053</v>
+        <v>14.37328524495432</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>6.816962142102531</v>
       </c>
       <c r="H3" t="n">
-        <v>1.578947368421053</v>
+        <v>1.426794704681126</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4194736842105263</v>
+        <v>0.3816688827298835</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1952631578947368</v>
+        <v>0.1775377917514638</v>
       </c>
       <c r="K3" t="n">
-        <v>6.921052631578948</v>
+        <v>6.297370330336608</v>
       </c>
       <c r="L3" t="n">
-        <v>3.157894736842105</v>
+        <v>2.871683943338174</v>
       </c>
       <c r="M3" t="n">
-        <v>60.02631578947368</v>
+        <v>54.72231945182394</v>
       </c>
       <c r="N3" t="n">
-        <v>10.94736842105263</v>
+        <v>9.937910673060845</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7928947368421052</v>
+        <v>0.7213193157659392</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1909585005991581</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.55263157894737</v>
+        <v>17.80404610273873</v>
       </c>
       <c r="R3" t="n">
-        <v>14.68421052631579</v>
+        <v>13.36911396292317</v>
       </c>
       <c r="S3" t="n">
-        <v>1.236842105263158</v>
+        <v>1.118424066940966</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2213157894736842</v>
+        <v>0.2010322656955349</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1547368421052631</v>
+        <v>0.1404208720795316</v>
       </c>
       <c r="V3" t="n">
-        <v>2.578947368421053</v>
+        <v>2.331723270592501</v>
       </c>
       <c r="W3" t="n">
-        <v>1.736842105263158</v>
+        <v>1.567390102197457</v>
       </c>
       <c r="X3" t="n">
-        <v>43.86842105263158</v>
+        <v>39.9515825521089</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.368421052631579</v>
+        <v>8.541747444675584</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5905263157894737</v>
+        <v>0.5380819666830455</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07180652601040877</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.1578947368421</v>
+        <v>12.91343692796492</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.94736842105263</v>
+        <v>10.89691335584123</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.210526315789474</v>
+        <v>1.102824841098995</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.151578947368421</v>
+        <v>0.1381985711929069</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1065789473684211</v>
+        <v>0.09719473504534638</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.947368421052632</v>
+        <v>1.780420025372314</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.210526315789474</v>
+        <v>1.106384859208966</v>
       </c>
       <c r="AI3" t="n">
-        <v>19.55263157894737</v>
+        <v>17.82186491374227</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04748647164476114</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.05894736842105264</v>
+        <v>0.05366494598684374</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04730295775154006</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.078947368421053</v>
+        <v>8.273908891525004</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.026315789473685</v>
+        <v>7.318218931617918</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2635989606184615</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.025</v>
+        <v>0.02272370366716554</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01921052631578947</v>
+        <v>0.01748690723743835</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04748647164476114</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02394351883530211</v>
       </c>
       <c r="AT3" t="n">
-        <v>31.78947368421053</v>
+        <v>28.9492318880503</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1652451181284001</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.08421052631578947</v>
+        <v>0.07660421321353894</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02420955793347214</v>
       </c>
       <c r="AX3" t="n">
-        <v>12.31578947368421</v>
+        <v>11.22689972840834</v>
       </c>
       <c r="AY3" t="n">
-        <v>11.28947368421053</v>
+        <v>10.28622195743265</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2359277951107822</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.02973684210526316</v>
+        <v>0.02709890808010428</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0268421052631579</v>
+        <v>0.02445796616518323</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07200129719333097</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07200129719333097</v>
       </c>
       <c r="BE3" t="n">
-        <v>6.605263157894737</v>
+        <v>6.032727122884174</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.052631578947369</v>
+        <v>1.876383167196877</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1221052631578947</v>
+        <v>0.1115985646130959</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09348337515646324</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.605263157894737</v>
+        <v>2.382594272153258</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.894736842105263</v>
+        <v>1.731453029313835</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2860575734283525</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.04789473684210527</v>
+        <v>0.04386202101358203</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.03263157894736842</v>
+        <v>0.02984692997383386</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7460758627268408</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5282198855254824</v>
       </c>
       <c r="BP3" t="n">
-        <v>12.07894736842105</v>
+        <v>11.00362441480565</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.947368421052632</v>
+        <v>1.773387796870127</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1705263157894737</v>
+        <v>0.1553489997965966</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.368421052631579</v>
+        <v>4.896302048733221</v>
       </c>
       <c r="BU3" t="n">
-        <v>4.184210526315789</v>
+        <v>3.815005855143054</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.336094209730366</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.07289473684210526</v>
+        <v>0.06643215212972495</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.05605263157894737</v>
+        <v>0.05106024894158936</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5744951673923989</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4783598528366931</v>
       </c>
       <c r="CA3" t="n">
-        <v>17.36842105263158</v>
+        <v>15.82433044870003</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01263157894736842</v>
+        <v>0.01145105313942739</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>7.868421052631579</v>
+        <v>7.172279372539917</v>
       </c>
       <c r="CF3" t="n">
-        <v>7.684210526315789</v>
+        <v>7.002481715785616</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1444412892563798</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.00368421052631579</v>
+        <v>0.003364377607613472</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.003157894736842105</v>
+        <v>0.002871981335626482</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1598,70 +1598,70 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>9.394736842105264</v>
+        <v>8.549268379946687</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.5</v>
+        <v>0.4569705646516868</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06369789807475451</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02411834065816272</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.842105263157895</v>
+        <v>2.586508248702062</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.421052631578947</v>
+        <v>2.203341262880889</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.169136657437525</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0218421052631579</v>
+        <v>0.01990243794217543</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.01578947368421053</v>
+        <v>0.01436720596236797</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1682701378823908</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09559500947705955</v>
       </c>
       <c r="CW3" t="n">
-        <v>26.81578947368421</v>
+        <v>24.45926443376316</v>
       </c>
       <c r="CX3" t="n">
-        <v>25.60526315789474</v>
+        <v>23.35659247222813</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.97</v>
+        <v>1.79681783834656</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4083045611503147</v>
       </c>
       <c r="DA3" t="n">
-        <v>7.578947368421052</v>
+        <v>6.915182254734455</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.631578947368421</v>
+        <v>2.400702422074053</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.394736842105263</v>
+        <v>1.269279578217983</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.5857894736842105</v>
+        <v>0.5346498016370195</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1778947368421052</v>
+        <v>0.1620971405801975</v>
       </c>
       <c r="DF3" t="n">
-        <v>7.236842105263158</v>
+        <v>6.60576557919658</v>
       </c>
       <c r="DG3" t="n">
-        <v>2.473684210526316</v>
+        <v>2.257140993367801</v>
       </c>
     </row>
     <row r="4">
@@ -1671,130 +1671,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.02631578947368</v>
+        <v>33.21593440703293</v>
       </c>
       <c r="C4" t="n">
-        <v>18.97368421052632</v>
+        <v>17.49435629229815</v>
       </c>
       <c r="D4" t="n">
-        <v>1.13421052631579</v>
+        <v>1.046468908306152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1432875101958239</v>
       </c>
       <c r="F4" t="n">
-        <v>15.18421052631579</v>
+        <v>13.990099944697</v>
       </c>
       <c r="G4" t="n">
-        <v>7.473684210526316</v>
+        <v>6.882193728006571</v>
       </c>
       <c r="H4" t="n">
-        <v>1.473684210526316</v>
+        <v>1.363856619142759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3955263157894737</v>
+        <v>0.3643186657667657</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1868421052631579</v>
+        <v>0.1718352907225473</v>
       </c>
       <c r="K4" t="n">
-        <v>6.605263157894737</v>
+        <v>6.085627643820759</v>
       </c>
       <c r="L4" t="n">
-        <v>3.289473684210526</v>
+        <v>3.032026419054951</v>
       </c>
       <c r="M4" t="n">
-        <v>67.76315789473684</v>
+        <v>62.5285396807065</v>
       </c>
       <c r="N4" t="n">
-        <v>14.13157894736842</v>
+        <v>13.05334020459114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9492105263157895</v>
+        <v>0.8765583720691971</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07284029168505017</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.84210526315789</v>
+        <v>22.01905617906312</v>
       </c>
       <c r="R4" t="n">
-        <v>17.71052631578947</v>
+        <v>16.3632014590692</v>
       </c>
       <c r="S4" t="n">
-        <v>2.052631578947369</v>
+        <v>1.9089789928891</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3</v>
+        <v>0.2771502572257729</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2057894736842105</v>
+        <v>0.1900364878862648</v>
       </c>
       <c r="V4" t="n">
-        <v>3.657894736842105</v>
+        <v>3.375185142790818</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.306320016298792</v>
       </c>
       <c r="X4" t="n">
-        <v>42.07894736842105</v>
+        <v>38.81521080200125</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.421052631578948</v>
+        <v>6.855637092152613</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5402631578947369</v>
+        <v>0.4989386017092149</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1691549484665788</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.71052631578947</v>
+        <v>11.73370975993607</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.57894736842105</v>
+        <v>9.765416102491386</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.605263157894737</v>
+        <v>1.484416167277185</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1434210526315789</v>
+        <v>0.1327691028941789</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1113157894736842</v>
+        <v>0.1030497386033721</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.894736842105263</v>
+        <v>1.750309933060017</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.342105263157895</v>
+        <v>1.239360868212347</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.89473684210526</v>
+        <v>15.54868850841816</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04833810766137254</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05868421052631579</v>
+        <v>0.05411836852449353</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.684210526315789</v>
+        <v>7.065068987906369</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.473684210526316</v>
+        <v>5.953450342055608</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1966115714287092</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02289473684210526</v>
+        <v>0.02101640768213026</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01868421052631579</v>
+        <v>0.01714616056022052</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1803,130 +1803,130 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>27.57894736842105</v>
+        <v>25.40548045007291</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1473014457318907</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.07763157894736843</v>
+        <v>0.07166106318054156</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.07894736842105</v>
+        <v>10.21447955641912</v>
       </c>
       <c r="AY4" t="n">
-        <v>10.57894736842105</v>
+        <v>9.757124027042625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2465863161628883</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.02552631578947369</v>
+        <v>0.02365537094868258</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.02315789473684211</v>
+        <v>0.02151698927053806</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02489641707363088</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02489641707363088</v>
       </c>
       <c r="BE4" t="n">
-        <v>7</v>
+        <v>6.460580286784198</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.631578947368421</v>
+        <v>2.430169926877429</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1431578947368421</v>
+        <v>0.1322386153267514</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.578947368421053</v>
+        <v>2.384913509087117</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.842105263157895</v>
+        <v>1.699664005275362</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3180935552758193</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.04947368421052632</v>
+        <v>0.04574740290115809</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.03447368421052632</v>
+        <v>0.03179520442368377</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8274745813618049</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5092940728011573</v>
       </c>
       <c r="BP4" t="n">
-        <v>10.68421052631579</v>
+        <v>9.87565605849254</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.078947368421053</v>
+        <v>1.922127629118548</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1526315789473684</v>
+        <v>0.1412163093889879</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02516732073736894</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.631578947368421</v>
+        <v>4.280141692347629</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.736842105263158</v>
+        <v>3.458735912525988</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3132898371049146</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.06710526315789474</v>
+        <v>0.06206962797417452</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05157894736842105</v>
+        <v>0.04780915386617999</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>0.9242478098752474</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6334517788885371</v>
       </c>
       <c r="CA4" t="n">
-        <v>12.76315789473684</v>
+        <v>11.75342455478273</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02426660914581536</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.009210526315789475</v>
+        <v>0.008411033127053753</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>4.894736842105263</v>
+        <v>4.512828605050905</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.763157894736842</v>
+        <v>4.392610726415366</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09755262049673902</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.003421052631578948</v>
+        <v>0.003135138389180221</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.003157894736842105</v>
+        <v>0.002901266457450037</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -1935,70 +1935,70 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>10.94736842105263</v>
+        <v>10.0971647837125</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.658908775349194</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.09315789473684211</v>
+        <v>0.08620109434385517</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.105263157894737</v>
+        <v>2.869627411736441</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.5</v>
+        <v>2.311730236292056</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2451539117723106</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02436675628264097</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.01842105263157895</v>
+        <v>0.01707908970958459</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2178998699278484</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1455216177372195</v>
       </c>
       <c r="CW4" t="n">
-        <v>28.10526315789474</v>
+        <v>25.90588511148096</v>
       </c>
       <c r="CX4" t="n">
-        <v>27.05263157894737</v>
+        <v>24.93893568206884</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.045263157894737</v>
+        <v>1.88571850076793</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2463015646704803</v>
       </c>
       <c r="DA4" t="n">
-        <v>7.263157894736842</v>
+        <v>6.696975978872775</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.894736842105263</v>
+        <v>2.670294777873288</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.5</v>
+        <v>1.387384688282179</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.5431578947368422</v>
+        <v>0.5009919700852911</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.2171052631578947</v>
+        <v>0.2000873074562518</v>
       </c>
       <c r="DF4" t="n">
-        <v>7</v>
+        <v>6.452726833212053</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.684210526315789</v>
+        <v>2.47423475068202</v>
       </c>
     </row>
     <row r="5">
@@ -2008,334 +2008,334 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.13157894736842</v>
+        <v>34.95334370264119</v>
       </c>
       <c r="C5" t="n">
-        <v>17.34210526315789</v>
+        <v>15.910510346078</v>
       </c>
       <c r="D5" t="n">
-        <v>1.093157894736842</v>
+        <v>1.002230142126542</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2860683315942941</v>
       </c>
       <c r="F5" t="n">
-        <v>16.86842105263158</v>
+        <v>15.43666633040587</v>
       </c>
       <c r="G5" t="n">
-        <v>8.157894736842104</v>
+        <v>7.456636801143724</v>
       </c>
       <c r="H5" t="n">
-        <v>1.657894736842105</v>
+        <v>1.513891032250084</v>
       </c>
       <c r="I5" t="n">
-        <v>0.386578947368421</v>
+        <v>0.353748725707612</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1873684210526316</v>
+        <v>0.171559280877562</v>
       </c>
       <c r="K5" t="n">
-        <v>6.026315789473684</v>
+        <v>5.516364902172393</v>
       </c>
       <c r="L5" t="n">
-        <v>2.763157894736842</v>
+        <v>2.530954188973138</v>
       </c>
       <c r="M5" t="n">
-        <v>49.18421052631579</v>
+        <v>45.03601795229174</v>
       </c>
       <c r="N5" t="n">
-        <v>9.578947368421053</v>
+        <v>8.754897787722376</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6521052631578947</v>
+        <v>0.596917562212136</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2381021404666025</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.89473684210526</v>
+        <v>16.36700234092045</v>
       </c>
       <c r="R5" t="n">
-        <v>13.78947368421053</v>
+        <v>12.62948490823974</v>
       </c>
       <c r="S5" t="n">
-        <v>1.710526315789474</v>
+        <v>1.56215311685489</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2144736842105263</v>
+        <v>0.1962852758494151</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1647368421052632</v>
+        <v>0.1510098666214702</v>
       </c>
       <c r="V5" t="n">
-        <v>2.710526315789474</v>
+        <v>2.476698037070625</v>
       </c>
       <c r="W5" t="n">
-        <v>2.184210526315789</v>
+        <v>2.000416859086842</v>
       </c>
       <c r="X5" t="n">
-        <v>36.63157894736842</v>
+        <v>33.49346576812775</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.131578947368421</v>
+        <v>8.33791227511804</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5705263157894737</v>
+        <v>0.5217558086678455</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1676175525508359</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.94736842105263</v>
+        <v>10.91688998881684</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.13157894736842</v>
+        <v>9.268932286969882</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.263157894736842</v>
+        <v>1.158161485240955</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1557894736842105</v>
+        <v>0.1422687743188243</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.125</v>
+        <v>0.114308373117476</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.315789473684211</v>
+        <v>2.105737971495089</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.789473684210526</v>
+        <v>1.635557684084423</v>
       </c>
       <c r="AI5" t="n">
-        <v>14.36842105263158</v>
+        <v>13.16717468153914</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05157894736842105</v>
+        <v>0.04726805536076464</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0246967784424565</v>
       </c>
       <c r="AM5" t="n">
-        <v>6.5</v>
+        <v>5.94820528864421</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.236842105263158</v>
+        <v>4.786079901722366</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1446053194504582</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02368421052631579</v>
+        <v>0.02176343457010417</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01684210526315789</v>
+        <v>0.01545269448159771</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02472255796066367</v>
       </c>
       <c r="AT5" t="n">
-        <v>19.63157894736842</v>
+        <v>18.00238673100992</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09911876805241812</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05657894736842105</v>
+        <v>0.05189538325233687</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04728255747724727</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.763157894736842</v>
+        <v>7.116531499723519</v>
       </c>
       <c r="AY5" t="n">
-        <v>7.263157894736842</v>
+        <v>6.659958043685802</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3363771196155942</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.01933660888515206</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01921052631578947</v>
+        <v>0.0176650547694552</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05091194187149642</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05091194187149642</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.473684210526316</v>
+        <v>5.920535808304403</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.710526315789474</v>
+        <v>2.469801315408472</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1447368421052632</v>
+        <v>0.1321190004866181</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.789473684210526</v>
+        <v>2.548055675610833</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.973684210526316</v>
+        <v>1.806934471815582</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1915734195658678</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.06052631578947368</v>
+        <v>0.05513077462152197</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0431578947368421</v>
+        <v>0.03937672398759746</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.078947368421053</v>
+        <v>0.9826449893115058</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5995418592149048</v>
       </c>
       <c r="BP5" t="n">
-        <v>10.10526315789474</v>
+        <v>9.255069502106727</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.026315789473684</v>
+        <v>1.867046932700857</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.155</v>
+        <v>0.142221323097683</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1203886240019933</v>
       </c>
       <c r="BT5" t="n">
-        <v>5.052631578947368</v>
+        <v>4.621012914593309</v>
       </c>
       <c r="BU5" t="n">
-        <v>4.210526315789473</v>
+        <v>3.851902099328945</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6219557633496288</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.07684210526315789</v>
+        <v>0.07013562755417073</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.06526315789473684</v>
+        <v>0.05960770068086631</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.026315789473684</v>
+        <v>0.9394193946577816</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8448578639276428</v>
       </c>
       <c r="CA5" t="n">
-        <v>12.57894736842105</v>
+        <v>11.53153759345422</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338488401097531</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.008421052631578947</v>
+        <v>0.007710449805505826</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>4.789473684210527</v>
+        <v>4.391227887891177</v>
       </c>
       <c r="CF5" t="n">
-        <v>4.684210526315789</v>
+        <v>4.294936862596999</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1203366906983937</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.002368421052631579</v>
+        <v>0.002152510184849969</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.001661136522478272</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338488401097531</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338488401097531</v>
       </c>
       <c r="CL5" t="n">
-        <v>9.789473684210526</v>
+        <v>8.935910786004376</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8158045101790571</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.09710526315789474</v>
+        <v>0.08847149827595706</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02397988247726041</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.578947368421053</v>
+        <v>2.352275186041343</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2</v>
+        <v>1.826987383258436</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04739019237774058</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.02026315789473684</v>
+        <v>0.01850149260658171</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.01184844085946514</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.131578947368421</v>
+        <v>0.120571471405609</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04873603438100849</v>
       </c>
       <c r="CW5" t="n">
-        <v>33.36842105263158</v>
+        <v>30.54060446961633</v>
       </c>
       <c r="CX5" t="n">
-        <v>31.68421052631579</v>
+        <v>29.00252032557379</v>
       </c>
       <c r="CY5" t="n">
-        <v>2.686578947368421</v>
+        <v>2.45843849095766</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2857592746570571</v>
       </c>
       <c r="DA5" t="n">
-        <v>8.789473684210526</v>
+        <v>8.05704814043629</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.289473684210526</v>
+        <v>3.011195604946459</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.526315789473684</v>
+        <v>1.391232820040603</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.7660526315789473</v>
+        <v>0.7027594311748175</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.2636842105263158</v>
+        <v>0.2418628491617921</v>
       </c>
       <c r="DF5" t="n">
-        <v>8.157894736842104</v>
+        <v>7.479431856866077</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.894736842105263</v>
+        <v>2.650510342500656</v>
       </c>
     </row>
     <row r="6">
@@ -2345,130 +2345,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.15384615384615</v>
+        <v>33.20997103766398</v>
       </c>
       <c r="C6" t="n">
-        <v>19.17948717948718</v>
+        <v>17.61953695973876</v>
       </c>
       <c r="D6" t="n">
-        <v>1.094358974358974</v>
+        <v>1.006259687059984</v>
       </c>
       <c r="E6" t="n">
-        <v>0.282051282051282</v>
+        <v>0.2608885845665658</v>
       </c>
       <c r="F6" t="n">
-        <v>13.2051282051282</v>
+        <v>12.13036914814492</v>
       </c>
       <c r="G6" t="n">
-        <v>7.461538461538462</v>
+        <v>6.84194677416667</v>
       </c>
       <c r="H6" t="n">
-        <v>1.666666666666667</v>
+        <v>1.526313197927949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.33</v>
+        <v>0.3027939424698123</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1812820512820513</v>
+        <v>0.1660164282394983</v>
       </c>
       <c r="K6" t="n">
-        <v>5.897435897435898</v>
+        <v>5.419347253526736</v>
       </c>
       <c r="L6" t="n">
-        <v>3.179487179487179</v>
+        <v>2.917644848745524</v>
       </c>
       <c r="M6" t="n">
-        <v>64.41025641025641</v>
+        <v>59.1680903985148</v>
       </c>
       <c r="N6" t="n">
-        <v>12.02564102564103</v>
+        <v>11.02284990725817</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8541025641025641</v>
+        <v>0.7836177360585673</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.210856278282954</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>20.21750886053488</v>
       </c>
       <c r="R6" t="n">
-        <v>17.28205128205128</v>
+        <v>15.87382774671994</v>
       </c>
       <c r="S6" t="n">
-        <v>1.641025641025641</v>
+        <v>1.498028548237401</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2341025641025641</v>
+        <v>0.2147108505628727</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1746153846153846</v>
+        <v>0.1599615911015753</v>
       </c>
       <c r="V6" t="n">
-        <v>2.743589743589744</v>
+        <v>2.507850156133124</v>
       </c>
       <c r="W6" t="n">
-        <v>1.923076923076923</v>
+        <v>1.754405638412684</v>
       </c>
       <c r="X6" t="n">
-        <v>39.51282051282051</v>
+        <v>36.2907521119574</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.051282051282051</v>
+        <v>7.40118757368748</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.4768565730688981</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1401281216797424</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.56410256410256</v>
+        <v>12.4739898657457</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.69230769230769</v>
+        <v>10.74422327672955</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.307692307692308</v>
+        <v>1.195664237888963</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1233333333333334</v>
+        <v>0.1133258079456649</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.09179487179487179</v>
+        <v>0.0842529777518319</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.769230769230769</v>
+        <v>1.626987803398136</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.230769230769231</v>
+        <v>1.129690574345264</v>
       </c>
       <c r="AI6" t="n">
-        <v>20.92307692307692</v>
+        <v>19.1869092485433</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04763407542242564</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.05</v>
+        <v>0.04580077941868854</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.02278504662959793</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.820512820512821</v>
+        <v>8.099209945783695</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.435897435897436</v>
+        <v>6.83777729065552</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2126337850148897</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01743589743589744</v>
+        <v>0.01593960164513742</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01256410256410256</v>
+        <v>0.01155363264445019</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2477,31 +2477,31 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>29.71794871794872</v>
+        <v>27.24893061423247</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.09396467094324129</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.06538461538461537</v>
+        <v>0.05984624885580699</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.30769230769231</v>
+        <v>10.37469140756318</v>
       </c>
       <c r="AY6" t="n">
-        <v>10.41025641025641</v>
+        <v>9.555152989234017</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07002099470873552</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.02179487179487179</v>
+        <v>0.01990199377449236</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.01846153846153846</v>
+        <v>0.01686100820630255</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
@@ -2510,97 +2510,97 @@
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.410256410256411</v>
+        <v>4.03643144637353</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.948717948717949</v>
+        <v>1.786137290305648</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0941025641025641</v>
+        <v>0.08609511702886211</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.02319755033868424</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.615384615384615</v>
+        <v>1.476016313168094</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.076923076923077</v>
+        <v>0.9851045451427933</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2349205214017064</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.03615384615384615</v>
+        <v>0.033184743022831</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.02256410256410257</v>
+        <v>0.02081276453070925</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6837950022997477</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4264596232889143</v>
       </c>
       <c r="BP6" t="n">
-        <v>9.948717948717949</v>
+        <v>9.130675895414067</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.051282051282051</v>
+        <v>1.887999159607499</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1482051282051282</v>
+        <v>0.1361393916028514</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.02302649505275754</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.512820512820513</v>
+        <v>4.141479800519609</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.58974358974359</v>
+        <v>3.298379398537224</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3776942349016497</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.06871794871794872</v>
+        <v>0.06308371294679527</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05307692307692307</v>
+        <v>0.04885502294436476</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8501728037658415</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.717948717948718</v>
+        <v>0.6642121110070749</v>
       </c>
       <c r="CA6" t="n">
-        <v>27.53846153846154</v>
+        <v>25.24932010015732</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01487179487179487</v>
+        <v>0.01366612817816458</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.0455080864077206</v>
       </c>
       <c r="CE6" t="n">
-        <v>12.05128205128205</v>
+        <v>11.05679205803494</v>
       </c>
       <c r="CF6" t="n">
-        <v>11.74358974358974</v>
+        <v>10.7732160065773</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1877684709065708</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.004102564102564103</v>
+        <v>0.00375072428872304</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.003846153846153846</v>
+        <v>0.00352573064479348</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -2609,70 +2609,70 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>11.25641025641026</v>
+        <v>10.33248753028253</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5431086311896116</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.09153846153846154</v>
+        <v>0.0840447744697559</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.0227540432038603</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.41025641025641</v>
+        <v>3.129585155517366</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3</v>
+        <v>2.750793915668838</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1881000805660631</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.03128205128205128</v>
+        <v>0.02885333659316784</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.02615384615384616</v>
+        <v>0.02414205500724903</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2368553883520629</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2141013451482026</v>
       </c>
       <c r="CW6" t="n">
-        <v>29.69230769230769</v>
+        <v>27.29211955078705</v>
       </c>
       <c r="CX6" t="n">
-        <v>28.74358974358974</v>
+        <v>26.41920268279759</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.506666666666667</v>
+        <v>2.302600536054321</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2341187556113874</v>
       </c>
       <c r="DA6" t="n">
-        <v>8.076923076923077</v>
+        <v>7.415723524513469</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.128205128205128</v>
+        <v>2.877586911846856</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.512820512820513</v>
+        <v>1.387398885487206</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.7074358974358974</v>
+        <v>0.6494977052201441</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.2758974358974359</v>
+        <v>0.2537029681890717</v>
       </c>
       <c r="DF6" t="n">
-        <v>7.692307692307693</v>
+        <v>7.064024956292074</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.897435897435897</v>
+        <v>2.66649849515609</v>
       </c>
     </row>
     <row r="7">
@@ -2682,130 +2682,130 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.07894736842105</v>
+        <v>27.57308389431693</v>
       </c>
       <c r="C7" t="n">
-        <v>14.02631578947368</v>
+        <v>12.8637344619172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8452631578947368</v>
+        <v>0.7746574160646439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1204370251740186</v>
       </c>
       <c r="F7" t="n">
-        <v>12.60526315789474</v>
+        <v>11.55864512685547</v>
       </c>
       <c r="G7" t="n">
-        <v>6.052631578947368</v>
+        <v>5.549000849766294</v>
       </c>
       <c r="H7" t="n">
-        <v>1.157894736842105</v>
+        <v>1.058683674545142</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3044736842105263</v>
+        <v>0.2788842369991363</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1431578947368421</v>
+        <v>0.1309559389237669</v>
       </c>
       <c r="K7" t="n">
-        <v>5.026315789473684</v>
+        <v>4.608393245081483</v>
       </c>
       <c r="L7" t="n">
-        <v>2.368421052631579</v>
+        <v>2.171092145236713</v>
       </c>
       <c r="M7" t="n">
-        <v>61.60526315789474</v>
+        <v>56.5421503860264</v>
       </c>
       <c r="N7" t="n">
-        <v>11.36842105263158</v>
+        <v>10.44461340430393</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7247002770390613</v>
       </c>
       <c r="P7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1189499477446969</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.97368421052632</v>
+        <v>19.24082544017024</v>
       </c>
       <c r="R7" t="n">
-        <v>15.18421052631579</v>
+        <v>13.92353198384786</v>
       </c>
       <c r="S7" t="n">
-        <v>1.236842105263158</v>
+        <v>1.135285721328947</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2376315789473684</v>
+        <v>0.2179496194071014</v>
       </c>
       <c r="U7" t="n">
-        <v>0.153421052631579</v>
+        <v>0.1406096518824925</v>
       </c>
       <c r="V7" t="n">
-        <v>3.052631578947369</v>
+        <v>2.807144210169299</v>
       </c>
       <c r="W7" t="n">
-        <v>1.631578947368421</v>
+        <v>1.501484585061415</v>
       </c>
       <c r="X7" t="n">
-        <v>43.1578947368421</v>
+        <v>39.6103547417201</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.289473684210526</v>
+        <v>7.595120902933115</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5536842105263158</v>
+        <v>0.5076816560846974</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09733634032539965</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.94736842105263</v>
+        <v>12.80586514670109</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.05263157894737</v>
+        <v>11.06140823211627</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.5</v>
+        <v>1.376468026929311</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1518421052631579</v>
+        <v>0.1391884464075217</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1163157894736842</v>
+        <v>0.106447541168233</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.026315789473684</v>
+        <v>1.858279073650163</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.447368421052632</v>
+        <v>1.324216994084216</v>
       </c>
       <c r="AI7" t="n">
-        <v>18.34210526315789</v>
+        <v>16.81456526875191</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04857032124928412</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.05431062749067362</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02437123565955875</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.552631578947368</v>
+        <v>7.838564243392393</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.315789473684211</v>
+        <v>6.703438293959899</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1910893742253142</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02789473684210526</v>
+        <v>0.02553329476425963</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02131578947368421</v>
+        <v>0.0194916976279654</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2814,202 +2814,202 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>29.78947368421053</v>
+        <v>27.31308959582133</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1689101287881043</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.07657894736842105</v>
+        <v>0.07017541491566211</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.684210526315789</v>
+        <v>8.884842249115826</v>
       </c>
       <c r="AY7" t="n">
-        <v>8.394736842105264</v>
+        <v>7.6989831139989</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1689064932438757</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.02157894736842105</v>
+        <v>0.01973578865141115</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01815789473684211</v>
+        <v>0.01660307771717982</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1202821771610256</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09607756752759093</v>
       </c>
       <c r="BE7" t="n">
-        <v>7.026315789473684</v>
+        <v>6.437878022030673</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.526315789473684</v>
+        <v>2.314577304213618</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1381578947368421</v>
+        <v>0.1267005074917055</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.421052631578947</v>
+        <v>2.217388899852126</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.473684210526316</v>
+        <v>1.354128171568887</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1464742175604406</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04789473684210527</v>
+        <v>0.0439487805362999</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02763157894736842</v>
+        <v>0.02551890684978661</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7224863929734502</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3885204328977339</v>
       </c>
       <c r="BP7" t="n">
-        <v>16.05263157894737</v>
+        <v>14.72561017317956</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.526315789473684</v>
+        <v>2.319643524511306</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.2110526315789474</v>
+        <v>0.1935925734322033</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09740485509092371</v>
       </c>
       <c r="BT7" t="n">
-        <v>8.078947368421053</v>
+        <v>7.405947254028958</v>
       </c>
       <c r="BU7" t="n">
-        <v>6.526315789473684</v>
+        <v>5.983690821284509</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7009711176647371</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1044736842105263</v>
+        <v>0.09581417455508344</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.08473684210526317</v>
+        <v>0.07775405520876209</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.236842105263158</v>
+        <v>1.136765773169004</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8717425108875517</v>
       </c>
       <c r="CA7" t="n">
-        <v>16.15789473684211</v>
+        <v>14.81211415244213</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02490977127294467</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.015</v>
+        <v>0.01371145191939702</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02427904718228169</v>
       </c>
       <c r="CE7" t="n">
-        <v>6.5</v>
+        <v>5.963956092046902</v>
       </c>
       <c r="CF7" t="n">
-        <v>6.210526315789473</v>
+        <v>5.698751994093541</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1687740197048814</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.006052631578947369</v>
+        <v>0.005548564794837627</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.005</v>
+        <v>0.004577242485185161</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02490977127294467</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02490977127294467</v>
       </c>
       <c r="CL7" t="n">
-        <v>11.68421052631579</v>
+        <v>10.73178171714764</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4849920274237503</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.09263157894736843</v>
+        <v>0.0851945164352426</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02373595490801526</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.894736842105263</v>
+        <v>2.660465983607403</v>
       </c>
       <c r="CQ7" t="n">
-        <v>2.342105263157895</v>
+        <v>2.153062606611628</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1197261209985604</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.02078947368421053</v>
+        <v>0.01915148257604797</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01684210526315789</v>
+        <v>0.01552322019886259</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1455876230089077</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.121166631158464</v>
       </c>
       <c r="CW7" t="n">
-        <v>27.5</v>
+        <v>25.21435430898311</v>
       </c>
       <c r="CX7" t="n">
-        <v>25.71052631578947</v>
+        <v>23.57410659544315</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.000789473684211</v>
+        <v>1.834400477327554</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2889042310045078</v>
       </c>
       <c r="DA7" t="n">
-        <v>7.263157894736842</v>
+        <v>6.666623072726487</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.657894736842105</v>
+        <v>2.436230789969607</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.342105263157895</v>
+        <v>1.227130004851225</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.5702631578947369</v>
+        <v>0.5239434360587553</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1897368421052631</v>
+        <v>0.1738006919586091</v>
       </c>
       <c r="DF7" t="n">
-        <v>6.763157894736842</v>
+        <v>6.209808182320802</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.315789473684211</v>
+        <v>2.123108910970019</v>
       </c>
     </row>
     <row r="8">
@@ -3019,130 +3019,130 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.38888888888889</v>
+        <v>25.17983463655459</v>
       </c>
       <c r="C8" t="n">
-        <v>14.38888888888889</v>
+        <v>13.22852558231259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8494444444444444</v>
+        <v>0.780012095224572</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1521767459448945</v>
       </c>
       <c r="F8" t="n">
-        <v>10.55555555555556</v>
+        <v>9.69853394553043</v>
       </c>
       <c r="G8" t="n">
-        <v>5.361111111111111</v>
+        <v>4.917424826920184</v>
       </c>
       <c r="H8" t="n">
-        <v>1.083333333333333</v>
+        <v>0.9880660490535084</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2775</v>
+        <v>0.2544748405793207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.145</v>
+        <v>0.132664826585117</v>
       </c>
       <c r="K8" t="n">
-        <v>4.611111111111111</v>
+        <v>4.238751547924538</v>
       </c>
       <c r="L8" t="n">
-        <v>2.444444444444445</v>
+        <v>2.240969078885238</v>
       </c>
       <c r="M8" t="n">
-        <v>56.69444444444444</v>
+        <v>52.12616838193719</v>
       </c>
       <c r="N8" t="n">
-        <v>11.80555555555556</v>
+        <v>10.85466277783127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7902777777777777</v>
+        <v>0.7263424329651742</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04969854721635156</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.5</v>
+        <v>18.84302531051064</v>
       </c>
       <c r="R8" t="n">
-        <v>15.47222222222222</v>
+        <v>14.22770866453945</v>
       </c>
       <c r="S8" t="n">
-        <v>1.583333333333333</v>
+        <v>1.452680304131439</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2355555555555556</v>
+        <v>0.2164602022327413</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1802777777777778</v>
+        <v>0.1658135820244198</v>
       </c>
       <c r="V8" t="n">
-        <v>3.111111111111111</v>
+        <v>2.857274393898928</v>
       </c>
       <c r="W8" t="n">
-        <v>2.361111111111111</v>
+        <v>2.173573321225617</v>
       </c>
       <c r="X8" t="n">
-        <v>41.72222222222222</v>
+        <v>38.35345097564156</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.805555555555555</v>
+        <v>6.258830297978634</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4730555555555556</v>
+        <v>0.4350848100254419</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05165900056505641</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.33333333333333</v>
+        <v>11.33954906901286</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.47222222222222</v>
+        <v>9.628012332399573</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8450040619976669</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1055555555555556</v>
+        <v>0.09728366176227048</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.07292412434819814</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.5</v>
+        <v>1.387254070574566</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.083333333333333</v>
+        <v>1.00124831538806</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.38888888888889</v>
+        <v>13.22634725768709</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.04305555555555556</v>
+        <v>0.03955622269939088</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02488205904014969</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.361111111111111</v>
+        <v>5.851033735089881</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.333333333333333</v>
+        <v>4.901314403618475</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2786590260620402</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0175</v>
+        <v>0.01610231991224946</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0125</v>
+        <v>0.01149988681841953</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3151,202 +3151,202 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.02777777777778</v>
+        <v>21.16650776350954</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1784060410481284</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.06972222222222223</v>
+        <v>0.06404933292868645</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0251004016064257</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.583333333333333</v>
+        <v>6.963925940354256</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.777777777777778</v>
+        <v>6.223571246037965</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2575950944525112</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.02361111111111111</v>
+        <v>0.0216907550777866</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01777777777777778</v>
+        <v>0.01633296347112671</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07758644760400107</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.611111111111111</v>
+        <v>4.22714367744883</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.416666666666667</v>
+        <v>1.294946671452992</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.09111111111111111</v>
+        <v>0.08327866446622893</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07631386717334918</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.805555555555556</v>
+        <v>1.649408800011199</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.138888888888889</v>
+        <v>1.038590334388872</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2020905937135782</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.03550004336834586</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.02400440164735974</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5589007159722472</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4048784527250647</v>
       </c>
       <c r="BP8" t="n">
-        <v>10.47222222222222</v>
+        <v>9.634774799068119</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.444444444444444</v>
+        <v>1.33158784287046</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.1319444444444444</v>
+        <v>0.1214838534598881</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02474022761009401</v>
       </c>
       <c r="BT8" t="n">
-        <v>4.166666666666667</v>
+        <v>3.83860473881092</v>
       </c>
       <c r="BU8" t="n">
-        <v>3.333333333333333</v>
+        <v>3.069231884588886</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4836358822453414</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.05111111111111111</v>
+        <v>0.04714941839123492</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.03944444444444444</v>
+        <v>0.03635785531210405</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.5</v>
+        <v>0.4621468443484124</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3333131329376902</v>
       </c>
       <c r="CA8" t="n">
-        <v>12.13888888888889</v>
+        <v>11.16784899729592</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01226043344747744</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0251004016064257</v>
       </c>
       <c r="CE8" t="n">
-        <v>5.055555555555555</v>
+        <v>4.640443116255212</v>
       </c>
       <c r="CF8" t="n">
-        <v>4.777777777777778</v>
+        <v>4.383556319221397</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.25</v>
+        <v>0.2271104069806912</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.003549642550974929</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.002535596412110973</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="CL8" t="n">
-        <v>8.333333333333334</v>
+        <v>7.657929231583052</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3574743446707735</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.06397032176524366</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>2.25</v>
+        <v>2.065908404669299</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.944444444444444</v>
+        <v>1.784118810642803</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1011836786027703</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.01587299272344888</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.01404893706377069</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.103218580732698</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07714975904343832</v>
       </c>
       <c r="CW8" t="n">
-        <v>25</v>
+        <v>22.96224789174373</v>
       </c>
       <c r="CX8" t="n">
-        <v>24.16666666666667</v>
+        <v>22.20205039565323</v>
       </c>
       <c r="CY8" t="n">
-        <v>1.849166666666667</v>
+        <v>1.699146457233265</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.126288181778116</v>
       </c>
       <c r="DA8" t="n">
-        <v>6.583333333333333</v>
+        <v>6.060930283608823</v>
       </c>
       <c r="DB8" t="n">
-        <v>2.388888888888889</v>
+        <v>2.198275388310205</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.333333333333333</v>
+        <v>1.226492223951277</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.4569444444444444</v>
+        <v>0.4214466321453036</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.1597222222222222</v>
+        <v>0.1470534087601838</v>
       </c>
       <c r="DF8" t="n">
-        <v>6.222222222222222</v>
+        <v>5.734009794867212</v>
       </c>
       <c r="DG8" t="n">
-        <v>2.194444444444445</v>
+        <v>2.021938429299198</v>
       </c>
     </row>
     <row r="9">
@@ -3356,262 +3356,262 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.26315789473684</v>
+        <v>32.31637676586526</v>
       </c>
       <c r="C9" t="n">
-        <v>19.42105263157895</v>
+        <v>17.79809143587335</v>
       </c>
       <c r="D9" t="n">
-        <v>1.153157894736842</v>
+        <v>1.056166672325381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2138675336846206</v>
       </c>
       <c r="F9" t="n">
-        <v>14.94736842105263</v>
+        <v>13.71479623246219</v>
       </c>
       <c r="G9" t="n">
-        <v>7.105263157894737</v>
+        <v>6.525182924049284</v>
       </c>
       <c r="H9" t="n">
-        <v>1.631578947368421</v>
+        <v>1.48651001133938</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4121052631578948</v>
+        <v>0.3768906497552599</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1794736842105263</v>
+        <v>0.1644026611225665</v>
       </c>
       <c r="K9" t="n">
-        <v>7.026315789473684</v>
+        <v>6.432442049662612</v>
       </c>
       <c r="L9" t="n">
-        <v>3.105263157894737</v>
+        <v>2.842326363065098</v>
       </c>
       <c r="M9" t="n">
-        <v>64.97368421052632</v>
+        <v>59.44897350564359</v>
       </c>
       <c r="N9" t="n">
-        <v>12.02631578947368</v>
+        <v>10.98880695327933</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8439473684210527</v>
+        <v>0.7724072691110966</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09975043905018441</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.05263157894737</v>
+        <v>18.35271792422209</v>
       </c>
       <c r="R9" t="n">
-        <v>14.36842105263158</v>
+        <v>13.17065687257533</v>
       </c>
       <c r="S9" t="n">
-        <v>1.157894736842105</v>
+        <v>1.068648378696264</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2207894736842105</v>
+        <v>0.2016786763241704</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1468421052631579</v>
+        <v>0.1345849086133539</v>
       </c>
       <c r="V9" t="n">
-        <v>2.526315789473684</v>
+        <v>2.311623732369129</v>
       </c>
       <c r="W9" t="n">
-        <v>1.552631578947368</v>
+        <v>1.427376488695469</v>
       </c>
       <c r="X9" t="n">
-        <v>39.97368421052632</v>
+        <v>36.56283027228303</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.684210526315789</v>
+        <v>6.117550143148674</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4686842105263158</v>
+        <v>0.4287203059811824</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2170658700649315</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.73684210526316</v>
+        <v>11.63383470292392</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.78947368421053</v>
+        <v>9.859116455259985</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.289473684210526</v>
+        <v>1.175855622949545</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1210526315789474</v>
+        <v>0.1106247474417421</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.09710526315789474</v>
+        <v>0.08874811728252496</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.526315789473684</v>
+        <v>1.394975249202843</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.210526315789474</v>
+        <v>1.106802901614431</v>
       </c>
       <c r="AI9" t="n">
-        <v>15.23684210526316</v>
+        <v>13.9350887833816</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05164163632759379</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.05342105263157895</v>
+        <v>0.04906773484854701</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04720468839924524</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.868421052631579</v>
+        <v>6.280357774046011</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.815789473684211</v>
+        <v>5.310997077150343</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2148085421388818</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.02394736842105263</v>
+        <v>0.02203406528439519</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01763157894736842</v>
+        <v>0.01616726333660587</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02691081755063719</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02691081755063719</v>
       </c>
       <c r="AT9" t="n">
-        <v>24.76315789473684</v>
+        <v>22.64116417337951</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1928166430524667</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.07342105263157894</v>
+        <v>0.06705512827758824</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02341030990048017</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.605263157894737</v>
+        <v>6.965187460316176</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.026315789473684</v>
+        <v>6.429846832849758</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2674594643075572</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.01736842105263158</v>
+        <v>0.01587070033973036</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01552631578947368</v>
+        <v>0.01415423911399376</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07222904149926128</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04826929387526958</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.947368421052632</v>
+        <v>5.484145570705262</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.657894736842105</v>
+        <v>1.528534185673022</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.1107894736842105</v>
+        <v>0.1020825499842641</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02294536962440979</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.815789473684211</v>
+        <v>1.674894124804879</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.105263157894737</v>
+        <v>1.016114585417352</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1694651296872946</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.03342105263157895</v>
+        <v>0.03075632226258289</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02052631578947368</v>
+        <v>0.01882178434955005</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5062411874602467</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2649702300810249</v>
       </c>
       <c r="BP9" t="n">
-        <v>10.6578947368421</v>
+        <v>9.805529179345045</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.815789473684211</v>
+        <v>1.659461632311442</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1484210526315789</v>
+        <v>0.1364493922345234</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.868421052631579</v>
+        <v>4.492547167273536</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.894736842105263</v>
+        <v>3.596344443916515</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4313381608115027</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0681578947368421</v>
+        <v>0.06274786841801523</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.05315789473684211</v>
+        <v>0.04885343539733983</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6521342880672404</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4803359912423238</v>
       </c>
       <c r="CA9" t="n">
-        <v>14.63157894736842</v>
+        <v>13.31747627283695</v>
       </c>
       <c r="CB9" t="n">
         <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.01236842105263158</v>
+        <v>0.01133839871087491</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>5.236842105263158</v>
+        <v>4.748646430617486</v>
       </c>
       <c r="CF9" t="n">
-        <v>5.026315789473684</v>
+        <v>4.558911840391783</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.06936046305409013</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.00368421052631579</v>
+        <v>0.0033612826785138</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.002894736842105263</v>
+        <v>0.00264181759222717</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -3620,70 +3620,70 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>9.763157894736842</v>
+        <v>8.942521017946687</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5494549676053353</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.07973684210526316</v>
+        <v>0.07269862700727575</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.236842105263158</v>
+        <v>2.040491122549482</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.947368421052632</v>
+        <v>1.77539108879536</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04911528775549553</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.02210526315789474</v>
+        <v>0.02007321658861134</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.01624578869992166</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1664521759388041</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1424924283148124</v>
       </c>
       <c r="CW9" t="n">
-        <v>28.71052631578947</v>
+        <v>26.38684271587133</v>
       </c>
       <c r="CX9" t="n">
-        <v>27.84210526315789</v>
+        <v>25.5894232827702</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.151578947368421</v>
+        <v>1.977699636155062</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1655994147910999</v>
       </c>
       <c r="DA9" t="n">
-        <v>7.605263157894737</v>
+        <v>6.997566514804163</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.552631578947369</v>
+        <v>2.342472707109255</v>
       </c>
       <c r="DC9" t="n">
-        <v>1</v>
+        <v>0.9064361749777902</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.5826315789473684</v>
+        <v>0.5370632851754115</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.1718421052631579</v>
+        <v>0.1580237608872842</v>
       </c>
       <c r="DF9" t="n">
-        <v>7.394736842105263</v>
+        <v>6.807714291701413</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.421052631578947</v>
+        <v>2.221724255876509</v>
       </c>
     </row>
     <row r="10">
@@ -3693,163 +3693,163 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.15789473684211</v>
+        <v>22.12972474741512</v>
       </c>
       <c r="C10" t="n">
-        <v>12.47368421052632</v>
+        <v>11.43143464881603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7794736842105263</v>
+        <v>0.7145967298028882</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1912937167401629</v>
       </c>
       <c r="F10" t="n">
-        <v>9.368421052631579</v>
+        <v>8.588201074624921</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.593676814512405</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.867979585661915</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2626315789473684</v>
+        <v>0.2407376562611108</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1371052631578947</v>
+        <v>0.125601363091576</v>
       </c>
       <c r="K10" t="n">
-        <v>4.210526315789473</v>
+        <v>3.856798364120226</v>
       </c>
       <c r="L10" t="n">
-        <v>2.342105263157895</v>
+        <v>2.152184129522281</v>
       </c>
       <c r="M10" t="n">
-        <v>56.57894736842105</v>
+        <v>51.86206957891499</v>
       </c>
       <c r="N10" t="n">
-        <v>12.18421052631579</v>
+        <v>11.2065062199871</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8026315789473685</v>
+        <v>0.7372734406559865</v>
       </c>
       <c r="P10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1206169577989792</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.05263157894737</v>
+        <v>17.46006804356736</v>
       </c>
       <c r="R10" t="n">
-        <v>13.89473684210526</v>
+        <v>12.72545314401673</v>
       </c>
       <c r="S10" t="n">
-        <v>1.526315789473684</v>
+        <v>1.393038322617233</v>
       </c>
       <c r="T10" t="n">
-        <v>0.233421052631579</v>
+        <v>0.2140005868622248</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1636842105263158</v>
+        <v>0.1498588690863691</v>
       </c>
       <c r="V10" t="n">
-        <v>3.394736842105263</v>
+        <v>3.114088413261058</v>
       </c>
       <c r="W10" t="n">
-        <v>2.289473684210526</v>
+        <v>2.098105473325911</v>
       </c>
       <c r="X10" t="n">
-        <v>42.05263157894737</v>
+        <v>38.62240764253278</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.394736842105264</v>
+        <v>7.709958478913966</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5484210526315789</v>
+        <v>0.5035539299946014</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1221805065400526</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.13157894736842</v>
+        <v>11.14985506355692</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.52631578947368</v>
+        <v>9.674935742039514</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.657894736842105</v>
+        <v>1.518899896426249</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1352631578947368</v>
+        <v>0.1240611517950563</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1110526315789474</v>
+        <v>0.1018022681678849</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.894736842105263</v>
+        <v>1.734414199162386</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.526315789473684</v>
+        <v>1.396821645983324</v>
       </c>
       <c r="AI10" t="n">
-        <v>17.81578947368421</v>
+        <v>16.3252006091868</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09447979878902452</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0581578947368421</v>
+        <v>0.05326499237862522</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.157894736842104</v>
+        <v>7.491824435801214</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.368421052631579</v>
+        <v>6.761998167280336</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.289557392699632</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.02263157894736842</v>
+        <v>0.02082317630696073</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02026315789473684</v>
+        <v>0.01864263599676689</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04663762880957947</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0233038910247912</v>
       </c>
       <c r="AT10" t="n">
-        <v>18.31578947368421</v>
+        <v>16.83177562600052</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02266843782727557</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.05026315789473684</v>
+        <v>0.04606368118524556</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04702772034607353</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.131578947368421</v>
+        <v>6.552898522017442</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.552631578947368</v>
+        <v>6.015637793360632</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1678997260236694</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01631578947368421</v>
+        <v>0.01504667991326024</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.01447368421052632</v>
+        <v>0.01337119209207348</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
@@ -3858,97 +3858,97 @@
         <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>8.657894736842104</v>
+        <v>7.939219641916283</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.973684210526316</v>
+        <v>2.714500015455587</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.1697368421052632</v>
+        <v>0.1554877699367438</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07185833608412803</v>
       </c>
       <c r="BI10" t="n">
-        <v>3.078947368421053</v>
+        <v>2.818418554121007</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.184210526315789</v>
+        <v>1.997862604633995</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4054752016139576</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.06078947368421053</v>
+        <v>0.05551604900370444</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.04236842105263158</v>
+        <v>0.03859917072990776</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.131578947368421</v>
+        <v>1.02582428562937</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7328711894526211</v>
       </c>
       <c r="BP10" t="n">
-        <v>14.92105263157895</v>
+        <v>13.73571576167731</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.368421052631579</v>
+        <v>2.179467408421508</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.1910526315789474</v>
+        <v>0.1759558005995205</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04734023397533241</v>
       </c>
       <c r="BT10" t="n">
-        <v>6.421052631578948</v>
+        <v>5.910605815042723</v>
       </c>
       <c r="BU10" t="n">
-        <v>5.105263157894737</v>
+        <v>4.703353407593204</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7049569839261784</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.08605263157894737</v>
+        <v>0.07929739422664124</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.065</v>
+        <v>0.05995490774216128</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.236842105263158</v>
+        <v>1.13680537175022</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7757336756023746</v>
       </c>
       <c r="CA10" t="n">
-        <v>17.39473684210526</v>
+        <v>15.98082245968243</v>
       </c>
       <c r="CB10" t="n">
         <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01395567216144633</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>6.631578947368421</v>
+        <v>6.09858900834892</v>
       </c>
       <c r="CF10" t="n">
-        <v>6.447368421052632</v>
+        <v>5.927021505156013</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1642817263567156</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.00368421052631579</v>
+        <v>0.003297535529385136</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.003421052631578948</v>
+        <v>0.003051081725781434</v>
       </c>
       <c r="CJ10" t="n">
         <v>0</v>
@@ -3957,70 +3957,70 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>6.315789473684211</v>
+        <v>5.788727638297405</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.405705980393377</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.05526315789473685</v>
+        <v>0.05053784623891548</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02402537079155588</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.894736842105263</v>
+        <v>1.734739298013024</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.657894736842105</v>
+        <v>1.518501775347003</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09621232968987412</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.01736842105263158</v>
+        <v>0.01580503764314907</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01473684210526316</v>
+        <v>0.0134267066001616</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1879966534815397</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.140661901103926</v>
       </c>
       <c r="CW10" t="n">
-        <v>24</v>
+        <v>22.05793312876935</v>
       </c>
       <c r="CX10" t="n">
-        <v>23.36842105263158</v>
+        <v>21.48436927703088</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.886842105263158</v>
+        <v>1.735746452589434</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2184706395315397</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.394736842105263</v>
+        <v>5.878333616137311</v>
       </c>
       <c r="DB10" t="n">
-        <v>2.210526315789474</v>
+        <v>2.02560585789927</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.184210526315789</v>
+        <v>1.084264611720004</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.5042105263157894</v>
+        <v>0.4635980976686603</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.175</v>
+        <v>0.1605863272655842</v>
       </c>
       <c r="DF10" t="n">
-        <v>6.236842105263158</v>
+        <v>5.73480319664051</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.184210526315789</v>
+        <v>2.000630680450634</v>
       </c>
     </row>
     <row r="11">
@@ -4030,163 +4030,163 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.64864864864865</v>
+        <v>27.99021786804615</v>
       </c>
       <c r="C11" t="n">
-        <v>19.67567567567568</v>
+        <v>17.94952231296628</v>
       </c>
       <c r="D11" t="n">
-        <v>1.081891891891892</v>
+        <v>0.9873080345035458</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3183935982592536</v>
       </c>
       <c r="F11" t="n">
-        <v>12.37837837837838</v>
+        <v>11.31162377947327</v>
       </c>
       <c r="G11" t="n">
-        <v>6.54054054054054</v>
+        <v>5.986596055463283</v>
       </c>
       <c r="H11" t="n">
-        <v>1.297297297297297</v>
+        <v>1.183031298959744</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3781081081081081</v>
+        <v>0.3456898116056117</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1810810810810811</v>
+        <v>0.1659325247209302</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6.391947998774496</v>
       </c>
       <c r="L11" t="n">
-        <v>3.594594594594595</v>
+        <v>3.291648007634627</v>
       </c>
       <c r="M11" t="n">
-        <v>57.02702702702702</v>
+        <v>52.13308033075915</v>
       </c>
       <c r="N11" t="n">
-        <v>11.97297297297297</v>
+        <v>10.94273953122799</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8040540540540541</v>
+        <v>0.7352670556610158</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1715226803697431</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.86486486486486</v>
+        <v>18.17101869630749</v>
       </c>
       <c r="R11" t="n">
-        <v>14.94594594594595</v>
+        <v>13.6719587781977</v>
       </c>
       <c r="S11" t="n">
-        <v>2.027027027027027</v>
+        <v>1.851637883886777</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2467567567567568</v>
+        <v>0.2259399722228571</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1786486486486487</v>
+        <v>0.1635021396907771</v>
       </c>
       <c r="V11" t="n">
-        <v>3.567567567567568</v>
+        <v>3.267913337970802</v>
       </c>
       <c r="W11" t="n">
-        <v>2.324324324324324</v>
+        <v>2.1262403969415</v>
       </c>
       <c r="X11" t="n">
-        <v>39.45945945945946</v>
+        <v>36.0907347954703</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.702702702702703</v>
+        <v>6.134524329807414</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4489189189189189</v>
+        <v>0.4106061926174739</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02454102154456281</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.75675675675676</v>
+        <v>12.58075515150271</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.43243243243243</v>
+        <v>10.46055718698305</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.081081081081081</v>
+        <v>0.9859638070007289</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1318918918918919</v>
+        <v>0.1206064845320659</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1051351351351351</v>
+        <v>0.09610486394172306</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.702702702702703</v>
+        <v>1.561957907350666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.324324324324324</v>
+        <v>1.212737759845176</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.72972972972973</v>
+        <v>10.72130580126511</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07198178043055252</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03405405405405405</v>
+        <v>0.03109979521780654</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02431678612062693</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.432432432432432</v>
+        <v>4.970208055620057</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.756756756756757</v>
+        <v>4.349433226318947</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1711955626954613</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01297297297297297</v>
+        <v>0.01185374754724833</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.00891891891891892</v>
+        <v>0.008128928528009388</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04716104132409913</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04716104132409913</v>
       </c>
       <c r="AT11" t="n">
-        <v>20.78378378378378</v>
+        <v>19.00347885039019</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.148980195081076</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0572972972972973</v>
+        <v>0.05215140216353377</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02431654303055455</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.297297297297296</v>
+        <v>7.588538165907071</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.675675675675675</v>
+        <v>7.020569424882543</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.29684352634813</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.02027027027027027</v>
+        <v>0.01840850383175318</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01810810810810811</v>
+        <v>0.01644092048734838</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
@@ -4195,169 +4195,169 @@
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.405405405405405</v>
+        <v>3.106749712162765</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.162162162162162</v>
+        <v>1.058542345781127</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06648648648648649</v>
+        <v>0.06056835541818397</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07129068435147545</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.135135135135135</v>
+        <v>1.036684156984014</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.5900104093112131</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1934506524915179</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02405405405405405</v>
+        <v>0.02185715929520666</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01594594594594595</v>
+        <v>0.01441286654431942</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.316928601013659</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2437925410251028</v>
       </c>
       <c r="BP11" t="n">
-        <v>10.05405405405405</v>
+        <v>9.189243054901949</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2.027027027027027</v>
+        <v>1.854623867127605</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.1408108108108108</v>
+        <v>0.1285293637212734</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.0729847946087497</v>
       </c>
       <c r="BT11" t="n">
-        <v>4.513513513513513</v>
+        <v>4.121190264525651</v>
       </c>
       <c r="BU11" t="n">
-        <v>3.756756756756757</v>
+        <v>3.432252200094338</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6911621311795934</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.05756756756756756</v>
+        <v>0.05242538246769451</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.04648648648648648</v>
+        <v>0.04235463386545165</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.6648843762070131</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4675123748500155</v>
       </c>
       <c r="CA11" t="n">
-        <v>11.86486486486486</v>
+        <v>10.852495828203</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0230017251293847</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.009189189189189189</v>
+        <v>0.008353419999581304</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>4.810810810810811</v>
+        <v>4.388738327283193</v>
       </c>
       <c r="CF11" t="n">
-        <v>4.702702702702703</v>
+        <v>4.290616589190132</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07408577326873281</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.002972972972972973</v>
+        <v>0.002678056916139732</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.002432432432432432</v>
+        <v>0.002218022413552038</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0230017251293847</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>6.621621621621622</v>
+        <v>6.066677874207342</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3482596871870445</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.05</v>
+        <v>0.04584127275615851</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.594594594594595</v>
+        <v>1.463742367846751</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.351351351351351</v>
+        <v>1.2378725182248</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1009943200308416</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.009939005452260232</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.008648648648648649</v>
+        <v>0.007940921287181596</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07483884685843374</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07483884685843374</v>
       </c>
       <c r="CW11" t="n">
-        <v>25.43243243243243</v>
+        <v>23.25685540185419</v>
       </c>
       <c r="CX11" t="n">
-        <v>24.54054054054054</v>
+        <v>22.44320332714981</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.898648648648649</v>
+        <v>1.734394747854471</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.368259905062354</v>
       </c>
       <c r="DA11" t="n">
-        <v>7.945945945945946</v>
+        <v>7.265942876127244</v>
       </c>
       <c r="DB11" t="n">
-        <v>3.216216216216216</v>
+        <v>2.940149019217269</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.675675675675676</v>
+        <v>1.527167353670743</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.6032432432432433</v>
+        <v>0.5512255168113598</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.2383783783783784</v>
+        <v>0.2177680645327061</v>
       </c>
       <c r="DF11" t="n">
-        <v>7.702702702702703</v>
+        <v>7.044191107681141</v>
       </c>
       <c r="DG11" t="n">
-        <v>3.081081081081081</v>
+        <v>2.81724469424247</v>
       </c>
     </row>
     <row r="12">
@@ -4367,334 +4367,334 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.32432432432432</v>
+        <v>34.42652605052046</v>
       </c>
       <c r="C12" t="n">
-        <v>20.64864864864865</v>
+        <v>19.03691789054185</v>
       </c>
       <c r="D12" t="n">
-        <v>1.178108108108108</v>
+        <v>1.085222810455477</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1491613624453053</v>
       </c>
       <c r="F12" t="n">
-        <v>15.64864864864865</v>
+        <v>14.43797644113993</v>
       </c>
       <c r="G12" t="n">
-        <v>8.162162162162161</v>
+        <v>7.531167690941456</v>
       </c>
       <c r="H12" t="n">
-        <v>1.756756756756757</v>
+        <v>1.621385352654847</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4354054054054054</v>
+        <v>0.4014261839582894</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2221621621621622</v>
+        <v>0.205115617510553</v>
       </c>
       <c r="K12" t="n">
-        <v>7.918918918918919</v>
+        <v>7.300243676285747</v>
       </c>
       <c r="L12" t="n">
-        <v>3.945945945945946</v>
+        <v>3.642637293072449</v>
       </c>
       <c r="M12" t="n">
-        <v>68.29729729729729</v>
+        <v>62.98268932724191</v>
       </c>
       <c r="N12" t="n">
-        <v>12.64864864864865</v>
+        <v>11.65351846416576</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8223332272478734</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1942118201497136</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.89189189189189</v>
+        <v>22.05374421664937</v>
       </c>
       <c r="R12" t="n">
-        <v>17.32432432432432</v>
+        <v>15.99871893564307</v>
       </c>
       <c r="S12" t="n">
-        <v>1.864864864864865</v>
+        <v>1.721194510049811</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2543243243243243</v>
+        <v>0.2346628232159705</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1767567567567568</v>
+        <v>0.1631399234546227</v>
       </c>
       <c r="V12" t="n">
-        <v>3.162162162162162</v>
+        <v>2.908188173222181</v>
       </c>
       <c r="W12" t="n">
-        <v>2.27027027027027</v>
+        <v>2.089724569450795</v>
       </c>
       <c r="X12" t="n">
-        <v>40.86486486486486</v>
+        <v>37.6446127460257</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.621621621621622</v>
+        <v>7.016892537619033</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5064864864864865</v>
+        <v>0.4664431492795391</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02564612563979959</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.89189189189189</v>
+        <v>10.95385466633238</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.21621621621622</v>
+        <v>9.410364791732885</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.540540540540541</v>
+        <v>1.422568685699678</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1262162162162162</v>
+        <v>0.1161794032086085</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1059459459459459</v>
+        <v>0.09747507501460037</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.675675675675676</v>
+        <v>1.540934822681629</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.459459459459459</v>
+        <v>1.342711490600295</v>
       </c>
       <c r="AI12" t="n">
-        <v>18.75675675675676</v>
+        <v>17.29602694461484</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02473668486095647</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05</v>
+        <v>0.04602617615997213</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.72972972972973</v>
+        <v>7.13521636972271</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.378378378378378</v>
+        <v>5.890105175562518</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1486422446961028</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.01591773704052323</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01324324324324324</v>
+        <v>0.01219495090070474</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02473668486095647</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02473668486095647</v>
       </c>
       <c r="AT12" t="n">
-        <v>31.43243243243243</v>
+        <v>29.00183330109178</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07564584617066132</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.07675675675675675</v>
+        <v>0.07066155737881785</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07395992148717608</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.02702702702703</v>
+        <v>10.15280184744414</v>
       </c>
       <c r="AY12" t="n">
-        <v>10.2972972972973</v>
+        <v>9.483126610931999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2715130925031342</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.0215579686059442</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02108108108108108</v>
+        <v>0.01933405082227731</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02534338170258528</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02534338170258528</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.432432432432432</v>
+        <v>4.080789220758558</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.918918918918919</v>
+        <v>1.772006199722954</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1005405405405405</v>
+        <v>0.09267307491354955</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02385439278643162</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.351351351351351</v>
+        <v>1.236198728542052</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.7906556141362675</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1720763498311996</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.03351351351351351</v>
+        <v>0.03072997034446845</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02081081081081081</v>
+        <v>0.01901668667065575</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.5714037409706231</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3734773450427538</v>
       </c>
       <c r="BP12" t="n">
-        <v>10.2972972972973</v>
+        <v>9.46896799287693</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.378378378378378</v>
+        <v>1.266439228831421</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.1310810810810811</v>
+        <v>0.1204648762709017</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02549719530851606</v>
       </c>
       <c r="BT12" t="n">
-        <v>4.324324324324325</v>
+        <v>3.977311950791391</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.54054054054054</v>
+        <v>3.259607070579873</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4447941577101944</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.06054054054054055</v>
+        <v>0.055655218358706</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.04621621621621622</v>
+        <v>0.04248507635768671</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.6440162062822394</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4704899976389021</v>
       </c>
       <c r="CA12" t="n">
-        <v>16.64864864864865</v>
+        <v>15.37141614873697</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0487512504882656</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.009459459459459458</v>
+        <v>0.008734990774686691</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>7.918918918918919</v>
+        <v>7.315089801956585</v>
       </c>
       <c r="CF12" t="n">
-        <v>7.54054054054054</v>
+        <v>6.964201729643456</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1003912247311782</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.004054054054054054</v>
+        <v>0.003743110681660762</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.003243243243243243</v>
+        <v>0.002986469774229544</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0244512261882413</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0244512261882413</v>
       </c>
       <c r="CL12" t="n">
-        <v>9.54054054054054</v>
+        <v>8.775785684359713</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6917804751254433</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.07810810810810812</v>
+        <v>0.0717545344024496</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.378378378378379</v>
+        <v>2.191225961273537</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.864864864864865</v>
+        <v>1.717807344096345</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07446151134868462</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.01972972972972973</v>
+        <v>0.01817977296674235</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01246463077614844</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1736703881482961</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07436998238100012</v>
       </c>
       <c r="CW12" t="n">
-        <v>28.94594594594595</v>
+        <v>26.71912306802734</v>
       </c>
       <c r="CX12" t="n">
-        <v>27.94594594594595</v>
+        <v>25.79234002137786</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.250810810810811</v>
+        <v>2.077578587325345</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.2978168219461076</v>
       </c>
       <c r="DA12" t="n">
-        <v>8</v>
+        <v>7.384797354435909</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.675675675675676</v>
+        <v>2.46480585102003</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.432432432432432</v>
+        <v>1.322129317580824</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.7048648648648649</v>
+        <v>0.6507809139172626</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.217027027027027</v>
+        <v>0.1999461259957692</v>
       </c>
       <c r="DF12" t="n">
-        <v>7.864864864864865</v>
+        <v>7.259466603646016</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.54054054054054</v>
+        <v>2.339475100230136</v>
       </c>
     </row>
     <row r="13">
@@ -4704,130 +4704,130 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.94594594594594</v>
+        <v>37.38708456337615</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2972972972973</v>
+        <v>20.39150859733836</v>
       </c>
       <c r="D13" t="n">
-        <v>1.298378378378378</v>
+        <v>1.186232653540261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.2945937304762047</v>
       </c>
       <c r="F13" t="n">
-        <v>14.64864864864865</v>
+        <v>13.3838276412798</v>
       </c>
       <c r="G13" t="n">
-        <v>7.648648648648648</v>
+        <v>6.980521430440261</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1.825376282964625</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4035135135135135</v>
+        <v>0.3685711683176638</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2181081081081081</v>
+        <v>0.1991330322606537</v>
       </c>
       <c r="K13" t="n">
-        <v>6.891891891891892</v>
+        <v>6.298112857816731</v>
       </c>
       <c r="L13" t="n">
-        <v>3.837837837837838</v>
+        <v>3.506984062179183</v>
       </c>
       <c r="M13" t="n">
-        <v>62.2972972972973</v>
+        <v>56.9052391523429</v>
       </c>
       <c r="N13" t="n">
-        <v>12.21621621621622</v>
+        <v>11.15058408951584</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8710810810810812</v>
+        <v>0.7949964868405026</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.100296479805863</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.40540540540541</v>
+        <v>19.57127717080718</v>
       </c>
       <c r="R13" t="n">
-        <v>16.78378378378378</v>
+        <v>15.34608562088921</v>
       </c>
       <c r="S13" t="n">
-        <v>1.756756756756757</v>
+        <v>1.602382028145677</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2540540540540541</v>
+        <v>0.2322484734813116</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1729519558813431</v>
       </c>
       <c r="V13" t="n">
-        <v>3.297297297297297</v>
+        <v>3.014595927466766</v>
       </c>
       <c r="W13" t="n">
-        <v>2.243243243243243</v>
+        <v>2.049403253420054</v>
       </c>
       <c r="X13" t="n">
-        <v>38.48648648648648</v>
+        <v>35.12414423255858</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.567567567567568</v>
+        <v>6.898152586812905</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5078378378378379</v>
+        <v>0.4631501627968168</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07247789424570537</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.7027027027027</v>
+        <v>10.71383966214874</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.10810810810811</v>
+        <v>9.259523997808842</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.7888094240136915</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1064864864864865</v>
+        <v>0.09734610078813677</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0818918918918919</v>
+        <v>0.07498102563988862</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.378378378378378</v>
+        <v>1.257044641995226</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.972972972972973</v>
+        <v>0.8902234059481294</v>
       </c>
       <c r="AI13" t="n">
-        <v>18.40540540540541</v>
+        <v>16.75682753456316</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04875774951864437</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.05351351351351352</v>
+        <v>0.04855385603743355</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07174344729430356</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.486486486486487</v>
+        <v>6.821668141388526</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.567567567567568</v>
+        <v>5.989273598019088</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2454562318830017</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.02</v>
+        <v>0.01815687774494072</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01594594594594595</v>
+        <v>0.0144794169619204</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4836,31 +4836,31 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>28.08108108108108</v>
+        <v>25.64409216293994</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09961953380831692</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.09270270270270271</v>
+        <v>0.08457586281106391</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>11.37837837837838</v>
+        <v>10.38123984586541</v>
       </c>
       <c r="AY13" t="n">
-        <v>10.43243243243243</v>
+        <v>9.516452017703902</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3169265770712284</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.03135135135135135</v>
+        <v>0.02855047232356836</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0272972972972973</v>
+        <v>0.02483681546869732</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
@@ -4869,97 +4869,97 @@
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>5.189189189189189</v>
+        <v>4.72423725420558</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.783783783783784</v>
+        <v>1.624535277213808</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.09675675675675675</v>
+        <v>0.0881304413063559</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0477312811301137</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.594594594594595</v>
+        <v>1.448697646898862</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.054054054054054</v>
+        <v>0.9554080587010503</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2456089618574081</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.02783783783783784</v>
+        <v>0.02531388759238123</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01891891891891892</v>
+        <v>0.01715442106004085</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.5160894408642969</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.3929055314679704</v>
       </c>
       <c r="BP13" t="n">
-        <v>9.675675675675675</v>
+        <v>8.81740954616459</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.972972972972973</v>
+        <v>1.807257682996867</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.1432432432432433</v>
+        <v>0.1306979934422241</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02460730837058606</v>
       </c>
       <c r="BT13" t="n">
-        <v>4.405405405405405</v>
+        <v>4.02481424429613</v>
       </c>
       <c r="BU13" t="n">
-        <v>3.567567567567568</v>
+        <v>3.253865986954593</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4149134965420239</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.06216216216216217</v>
+        <v>0.05680967513167834</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.04864864864864865</v>
+        <v>0.04431869363745893</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.6712607026611852</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4450024636628834</v>
       </c>
       <c r="CA13" t="n">
-        <v>17.35135135135135</v>
+        <v>15.84861492995102</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01432432432432433</v>
+        <v>0.01307136334954538</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>7.324324324324325</v>
+        <v>6.689481938421719</v>
       </c>
       <c r="CF13" t="n">
-        <v>7.135135135135135</v>
+        <v>6.517072501775857</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1273810639533748</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.004324324324324324</v>
+        <v>0.003959317046382037</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.004054054054054054</v>
+        <v>0.003715096922643841</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -4968,70 +4968,70 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>12.43243243243243</v>
+        <v>11.34593358485332</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.6642114572458639</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.102972972972973</v>
+        <v>0.09379055608161022</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02444164421656383</v>
       </c>
       <c r="CP13" t="n">
-        <v>3.216216216216216</v>
+        <v>2.940041196086248</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.648648648648649</v>
+        <v>2.417069965349744</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1989305715979924</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.02147185586243719</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.01648648648648648</v>
+        <v>0.01496701619976416</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07598554479241658</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>29.54054054054054</v>
+        <v>26.94677415017803</v>
       </c>
       <c r="CX13" t="n">
-        <v>28</v>
+        <v>25.54323645761693</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.217837837837838</v>
+        <v>2.021822070787164</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3692327619111946</v>
       </c>
       <c r="DA13" t="n">
-        <v>7.945945945945946</v>
+        <v>7.253898839218043</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.297297297297297</v>
+        <v>3.011782482727697</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.810810810810811</v>
+        <v>1.651622225122984</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.5727027027027027</v>
+        <v>0.5219003763531117</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.2291891891891892</v>
+        <v>0.2089565765183826</v>
       </c>
       <c r="DF13" t="n">
-        <v>7.405405405405405</v>
+        <v>6.761291909176772</v>
       </c>
       <c r="DG13" t="n">
-        <v>2.972972972972973</v>
+        <v>2.715854144554705</v>
       </c>
     </row>
     <row r="14">
@@ -5041,262 +5041,262 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.13513513513514</v>
+        <v>30.60301810186599</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>14.77668542421022</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9962162162162163</v>
+        <v>0.9201233399982629</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2260155905700601</v>
       </c>
       <c r="F14" t="n">
-        <v>15.10810810810811</v>
+        <v>13.94587368092084</v>
       </c>
       <c r="G14" t="n">
-        <v>7.675675675675675</v>
+        <v>7.100082855556997</v>
       </c>
       <c r="H14" t="n">
-        <v>1.675675675675676</v>
+        <v>1.551535610425498</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3637837837837838</v>
+        <v>0.3357067148513237</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1837837837837838</v>
+        <v>0.1697866155170915</v>
       </c>
       <c r="K14" t="n">
-        <v>5.810810810810811</v>
+        <v>5.363581890648223</v>
       </c>
       <c r="L14" t="n">
-        <v>2.594594594594595</v>
+        <v>2.392363430926816</v>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>46.11163472089024</v>
       </c>
       <c r="N14" t="n">
-        <v>9.27027027027027</v>
+        <v>8.535797283056294</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6859459459459459</v>
+        <v>0.6317916849622726</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02459934500144043</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.18918918918919</v>
+        <v>15.85307711971855</v>
       </c>
       <c r="R14" t="n">
-        <v>12.40540540540541</v>
+        <v>11.44747927459531</v>
       </c>
       <c r="S14" t="n">
-        <v>1.27027027027027</v>
+        <v>1.170311258717585</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1989189189189189</v>
+        <v>0.1832178132820434</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1356756756756757</v>
+        <v>0.1251622387771769</v>
       </c>
       <c r="V14" t="n">
-        <v>2.432432432432432</v>
+        <v>2.238027202961093</v>
       </c>
       <c r="W14" t="n">
-        <v>1.648648648648649</v>
+        <v>1.519076951136425</v>
       </c>
       <c r="X14" t="n">
-        <v>36.94594594594594</v>
+        <v>34.09651399807947</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.891891891891892</v>
+        <v>7.300644289463142</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4891891891891892</v>
+        <v>0.4518389805408963</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05065547116352689</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.94594594594595</v>
+        <v>11.03109218168957</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.21621621621622</v>
+        <v>9.432171187813932</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.216216216216216</v>
+        <v>1.110899491086349</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1381081081081081</v>
+        <v>0.1274386682899406</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1089189189189189</v>
+        <v>0.1004343318830068</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.135135135135135</v>
+        <v>1.970515075683444</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.486486486486486</v>
+        <v>1.368720989553936</v>
       </c>
       <c r="AI14" t="n">
-        <v>17.62162162162162</v>
+        <v>16.20911842987523</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02657931326142349</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.04864864864864865</v>
+        <v>0.04479686964635134</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.243243243243243</v>
+        <v>6.63292923282936</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.027027027027027</v>
+        <v>5.523308467590502</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1246908348294401</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01837837837837838</v>
+        <v>0.0169224234514044</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.01378378378378378</v>
+        <v>0.01273718358268698</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02657931326142349</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02657931326142349</v>
       </c>
       <c r="AT14" t="n">
-        <v>22.91891891891892</v>
+        <v>21.12003180943916</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1505751634733826</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.06675675675675677</v>
+        <v>0.06150838236082668</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02657931326142349</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.432432432432432</v>
+        <v>7.773825755042849</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.324324324324325</v>
+        <v>6.760510075333485</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2225440917481022</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.02189189189189189</v>
+        <v>0.02016129137745275</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.01837837837837838</v>
+        <v>0.01695533843231475</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05023567945078708</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05023567945078708</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.108108108108108</v>
+        <v>3.792087676465126</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.297297297297297</v>
+        <v>1.20121939193595</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.07621621621621623</v>
+        <v>0.07048350227708335</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.378378378378378</v>
+        <v>1.269867554506361</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.7719809742161857</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09948596496925907</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.02621621621621622</v>
+        <v>0.02422157521249236</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.01350856492667002</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3733996517366636</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2242227249175365</v>
       </c>
       <c r="BP14" t="n">
-        <v>8.378378378378379</v>
+        <v>7.734148314059258</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.540540540540541</v>
+        <v>1.429412024374481</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.124054054054054</v>
+        <v>0.1147121921923639</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04946992052943676</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.027027027027027</v>
+        <v>2.807299920012503</v>
       </c>
       <c r="BU14" t="n">
-        <v>2.243243243243243</v>
+        <v>2.082971697492324</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.2982616192805653</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.04486486486486486</v>
+        <v>0.04167925794628762</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.02891891891891892</v>
+        <v>0.02683228003788569</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4786706468392022</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.326458072543704</v>
       </c>
       <c r="CA14" t="n">
-        <v>15.72972972972973</v>
+        <v>14.4818865900753</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04954463233443651</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.01108108108108108</v>
+        <v>0.0101100106527478</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>6.243243243243243</v>
+        <v>5.756092744466514</v>
       </c>
       <c r="CF14" t="n">
-        <v>5.972972972972973</v>
+        <v>5.507548941561069</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09902450687175872</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.001351351351351351</v>
+        <v>0.001238276665069131</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.001351351351351351</v>
+        <v>0.001238276665069131</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -5305,70 +5305,70 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>7.891891891891892</v>
+        <v>7.294456675573035</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.526357913100864</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.06675675675675677</v>
+        <v>0.06186981375322113</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>2.45945945945946</v>
+        <v>2.280164817135072</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.756756756756757</v>
+        <v>1.631741016354582</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1251240063256946</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.02183942588669332</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.01513513513513514</v>
+        <v>0.01405421234126705</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1995475715262321</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1239457406536988</v>
       </c>
       <c r="CW14" t="n">
-        <v>20.59459459459459</v>
+        <v>19.05247852152513</v>
       </c>
       <c r="CX14" t="n">
-        <v>19.97297297297297</v>
+        <v>18.4757485824559</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.663513513513514</v>
+        <v>1.536513270292999</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2716977511680132</v>
       </c>
       <c r="DA14" t="n">
-        <v>5.405405405405405</v>
+        <v>5.011380748653036</v>
       </c>
       <c r="DB14" t="n">
-        <v>2.081081081081081</v>
+        <v>1.932492964402377</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.189189189189189</v>
+        <v>1.096988529804828</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.4356756756756757</v>
+        <v>0.4035132467040863</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.1645945945945946</v>
+        <v>0.1529703070003831</v>
       </c>
       <c r="DF14" t="n">
-        <v>5.27027027027027</v>
+        <v>4.884544751483998</v>
       </c>
       <c r="DG14" t="n">
-        <v>2</v>
+        <v>1.856003606766719</v>
       </c>
     </row>
     <row r="15">
@@ -5378,163 +5378,163 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.47368421052632</v>
+        <v>22.48055961610414</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5</v>
+        <v>13.31787301245573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8510526315789475</v>
+        <v>0.7806874948154769</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09646474219988473</v>
       </c>
       <c r="F15" t="n">
-        <v>11.31578947368421</v>
+        <v>10.37132367087319</v>
       </c>
       <c r="G15" t="n">
-        <v>4.552631578947368</v>
+        <v>4.171316236458483</v>
       </c>
       <c r="H15" t="n">
-        <v>1.052631578947368</v>
+        <v>0.9649867074510604</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3318421052631579</v>
+        <v>0.3038496298613808</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1318421052631579</v>
+        <v>0.1204578765220854</v>
       </c>
       <c r="K15" t="n">
-        <v>6.131578947368421</v>
+        <v>5.622369109262754</v>
       </c>
       <c r="L15" t="n">
-        <v>2.684210526315789</v>
+        <v>2.452164673383388</v>
       </c>
       <c r="M15" t="n">
-        <v>48.57894736842105</v>
+        <v>44.66897677736128</v>
       </c>
       <c r="N15" t="n">
-        <v>10.6578947368421</v>
+        <v>9.75656728173267</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6957894736842105</v>
+        <v>0.6372834087915799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07237631033417141</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.60526315789474</v>
+        <v>17.09989227622742</v>
       </c>
       <c r="R15" t="n">
-        <v>12.89473684210526</v>
+        <v>11.86059101382032</v>
       </c>
       <c r="S15" t="n">
-        <v>1.368421052631579</v>
+        <v>1.247491328431664</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2405263157894737</v>
+        <v>0.2199898832198385</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1568421052631579</v>
+        <v>0.1434791510314116</v>
       </c>
       <c r="V15" t="n">
-        <v>3.236842105263158</v>
+        <v>2.95663174271457</v>
       </c>
       <c r="W15" t="n">
-        <v>2.184210526315789</v>
+        <v>1.995728317206429</v>
       </c>
       <c r="X15" t="n">
-        <v>32.6578947368421</v>
+        <v>29.98281168719234</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.710526315789473</v>
+        <v>6.143518136405867</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4363157894736843</v>
+        <v>0.399745248800791</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07214394543250992</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.236842105263158</v>
+        <v>8.488104387881904</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.657894736842105</v>
+        <v>7.042072580725946</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7721344168639386</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.103421052631579</v>
+        <v>0.09485402495341055</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.07447368421052632</v>
+        <v>0.06843365716826665</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.342105263157895</v>
+        <v>1.229204405089296</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8197888925916895</v>
       </c>
       <c r="AI15" t="n">
-        <v>13.73684210526316</v>
+        <v>12.61567633479221</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07135819834683541</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.05</v>
+        <v>0.04587129426178228</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.631578947368421</v>
+        <v>6.071636029173568</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.473684210526316</v>
+        <v>5.011816943858489</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3368049594352455</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.02578947368421053</v>
+        <v>0.02363507449872471</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01973684210526316</v>
+        <v>0.01806604788771352</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04797793129222951</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04797793129222951</v>
       </c>
       <c r="AT15" t="n">
-        <v>18.42105263157895</v>
+        <v>16.94725022238014</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04732112356268834</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.05131578947368421</v>
+        <v>0.04716384026529693</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0236532248018254</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.210526315789473</v>
+        <v>5.714814673946093</v>
       </c>
       <c r="AY15" t="n">
-        <v>5.447368421052632</v>
+        <v>5.015946968229855</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0236532248018254</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.01210526315789474</v>
+        <v>0.01115212836664209</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.008286278662827074</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
@@ -5543,169 +5543,169 @@
         <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.973684210526316</v>
+        <v>4.56242209752716</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.868421052631579</v>
+        <v>1.712648799689036</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1039473684210526</v>
+        <v>0.09538567122791126</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338026705460591</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.236842105263158</v>
+        <v>2.044829553624349</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1.473684210526316</v>
+        <v>1.34845729545769</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2144125572740513</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.04578947368421053</v>
+        <v>0.04190467547886675</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.02842105263157895</v>
+        <v>0.02602876598382264</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6495031721391989</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.5</v>
+        <v>0.4579786735595425</v>
       </c>
       <c r="BP15" t="n">
-        <v>10.39473684210526</v>
+        <v>9.559251047193607</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.789473684210526</v>
+        <v>1.642470130066884</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.1402631578947368</v>
+        <v>0.128797878495859</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04777303995076292</v>
       </c>
       <c r="BT15" t="n">
-        <v>4.763157894736842</v>
+        <v>4.372213692721452</v>
       </c>
       <c r="BU15" t="n">
-        <v>3.5</v>
+        <v>3.207066529160279</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5048792459469892</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.06342105263157895</v>
+        <v>0.05827911223515737</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.04236842105263158</v>
+        <v>0.03882882095131995</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6793453915891239</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4120517328092163</v>
       </c>
       <c r="CA15" t="n">
-        <v>13</v>
+        <v>11.95510933975312</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04793825063677529</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.01210526315789474</v>
+        <v>0.01114539855817406</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>4.789473684210527</v>
+        <v>4.412107418091292</v>
       </c>
       <c r="CF15" t="n">
-        <v>4.526315789473684</v>
+        <v>4.172115186365389</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04933980421796735</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.001658107078790226</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001578947368421053</v>
+        <v>0.001421574830771972</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338026705460591</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338026705460591</v>
       </c>
       <c r="CL15" t="n">
-        <v>6.052631578947368</v>
+        <v>5.562403553890868</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4869281169426167</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.05441041232778385</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>1.894736842105263</v>
+        <v>1.738079277429325</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1.394736842105263</v>
+        <v>1.277929187009191</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02434142911234922</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.0163422405893633</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.0120098183159421</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09730768940615098</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09730768940615098</v>
       </c>
       <c r="CW15" t="n">
-        <v>22.73684210526316</v>
+        <v>20.86971034111465</v>
       </c>
       <c r="CX15" t="n">
-        <v>22.13157894736842</v>
+        <v>20.31734420655275</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.973157894736842</v>
+        <v>1.810630665245216</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3338478077961428</v>
       </c>
       <c r="DA15" t="n">
-        <v>5.789473684210527</v>
+        <v>5.315591278229894</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.315789473684211</v>
+        <v>2.125945130940606</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.131578947368421</v>
+        <v>1.035989845773646</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.4873684210526316</v>
+        <v>0.4471468022170645</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.1965789473684211</v>
+        <v>0.1800097198067806</v>
       </c>
       <c r="DF15" t="n">
-        <v>5.578947368421052</v>
+        <v>5.124942032742981</v>
       </c>
       <c r="DG15" t="n">
-        <v>2.210526315789474</v>
+        <v>2.030012337673051</v>
       </c>
     </row>
     <row r="16">
@@ -5715,130 +5715,130 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.39473684210526</v>
+        <v>27.00187068088614</v>
       </c>
       <c r="C16" t="n">
-        <v>13.92105263157895</v>
+        <v>12.77616176906712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7484566789469608</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2392677090737372</v>
       </c>
       <c r="F16" t="n">
-        <v>11.78947368421053</v>
+        <v>10.83282515642842</v>
       </c>
       <c r="G16" t="n">
-        <v>5.421052631578948</v>
+        <v>4.987161717658077</v>
       </c>
       <c r="H16" t="n">
-        <v>1.105263157894737</v>
+        <v>1.012334152197777</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2921052631578947</v>
+        <v>0.267480626835799</v>
       </c>
       <c r="J16" t="n">
-        <v>0.13</v>
+        <v>0.1190201010818319</v>
       </c>
       <c r="K16" t="n">
-        <v>4.894736842105263</v>
+        <v>4.492788194561993</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1.830550104705702</v>
       </c>
       <c r="M16" t="n">
-        <v>49.78947368421053</v>
+        <v>45.79426309703204</v>
       </c>
       <c r="N16" t="n">
-        <v>9.394736842105264</v>
+        <v>8.638418584470925</v>
       </c>
       <c r="O16" t="n">
-        <v>0.64</v>
+        <v>0.5881133446998806</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2416169112201653</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.97368421052632</v>
+        <v>14.69699996069351</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>10.56626700435164</v>
       </c>
       <c r="S16" t="n">
-        <v>1.026315789473684</v>
+        <v>0.9402639057475803</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1715789473684211</v>
+        <v>0.1574606404790181</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152631578947368</v>
+        <v>0.105838314877791</v>
       </c>
       <c r="V16" t="n">
-        <v>2.184210526315789</v>
+        <v>2.006129175632025</v>
       </c>
       <c r="W16" t="n">
-        <v>1.368421052631579</v>
+        <v>1.263271673875154</v>
       </c>
       <c r="X16" t="n">
-        <v>36.63157894736842</v>
+        <v>33.6376230183122</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.815789473684211</v>
+        <v>4.409079428122048</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3705263157894737</v>
+        <v>0.3396688436239335</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1177376619554404</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.26315789473684</v>
+        <v>11.25422263466501</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.55263157894737</v>
+        <v>9.685394955078618</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.315789473684211</v>
+        <v>1.200175103401924</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1007894736842105</v>
+        <v>0.09263641087403175</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0813157894736842</v>
+        <v>0.07479156671116567</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.078947368421053</v>
+        <v>0.9916890949885844</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.749763892268518</v>
       </c>
       <c r="AI16" t="n">
-        <v>17.68421052631579</v>
+        <v>16.27500593348486</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04683978635727805</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.05184210526315789</v>
+        <v>0.04765262548821687</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>7.342105263157895</v>
+        <v>6.757167425657904</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.210526315789473</v>
+        <v>5.713212689058354</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2656765830760895</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.01763157894736842</v>
+        <v>0.01617913453620996</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.01236842105263158</v>
+        <v>0.0113264954159782</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5847,202 +5847,202 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>23.71052631578947</v>
+        <v>21.88101255880577</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1926356247938024</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.06236842105263158</v>
+        <v>0.05739807383653957</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.026315789473685</v>
+        <v>7.41998354190225</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6.474271586332722</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09640864786411259</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01473684210526316</v>
+        <v>0.01357981393446239</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01</v>
+        <v>0.009222421910731153</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07270071847078192</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0484763034904037</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.605263157894737</v>
+        <v>3.309680686101589</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.052631578947368</v>
+        <v>0.9598199153576272</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.06526315789473684</v>
+        <v>0.0597956130993708</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>1.289473684210526</v>
+        <v>1.184166761089922</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7709770979217069</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.120591253994775</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.02421052631578947</v>
+        <v>0.02219066639371309</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01605263157894737</v>
+        <v>0.01466338059913081</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3602395876816075</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2399534083935431</v>
       </c>
       <c r="BP16" t="n">
-        <v>9.5</v>
+        <v>8.729708544066716</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.078947368421053</v>
+        <v>0.9907418611498434</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.1094736842105263</v>
+        <v>0.1006106634053962</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>4.605263157894737</v>
+        <v>4.246341469612406</v>
       </c>
       <c r="BU16" t="n">
-        <v>3.684210526315789</v>
+        <v>3.387612040834322</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4306326632895836</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0486842105263158</v>
+        <v>0.04494201438294104</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.03973684210526316</v>
+        <v>0.03662773590920045</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3642171431176414</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2912497209344617</v>
       </c>
       <c r="CA16" t="n">
-        <v>16.05263157894737</v>
+        <v>14.76888877915102</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04818342607663515</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.008684210526315789</v>
+        <v>0.007928317574058541</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>6</v>
+        <v>5.52257025502594</v>
       </c>
       <c r="CF16" t="n">
-        <v>5.815789473684211</v>
+        <v>5.353552078291282</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09613413263271825</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.002894736842105263</v>
+        <v>0.002623969511545692</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.002894736842105263</v>
+        <v>0.002623969511545692</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02482621648460774</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02482621648460774</v>
       </c>
       <c r="CL16" t="n">
-        <v>7.131578947368421</v>
+        <v>6.571365737659943</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.388007846784244</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.05631578947368421</v>
+        <v>0.05179697604394986</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>2.052631578947369</v>
+        <v>1.891763552226185</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1.736842105263158</v>
+        <v>1.602818459683259</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1190955401179723</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.01342105263157895</v>
+        <v>0.01232812617511789</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.01078947368421053</v>
+        <v>0.009921759270537036</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1438618147242184</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09571873608190351</v>
       </c>
       <c r="CW16" t="n">
-        <v>15.97368421052632</v>
+        <v>14.67162422849169</v>
       </c>
       <c r="CX16" t="n">
-        <v>15.39473684210526</v>
+        <v>14.13572468896452</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.136052631578947</v>
+        <v>1.043160960364649</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1445393077804939</v>
       </c>
       <c r="DA16" t="n">
-        <v>4.315789473684211</v>
+        <v>3.957914364215352</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.526315789473684</v>
+        <v>1.390697139808258</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6715789033587697</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.3402631578947368</v>
+        <v>0.3121050142356056</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.1102631578947369</v>
+        <v>0.1000738250855275</v>
       </c>
       <c r="DF16" t="n">
-        <v>4.210526315789473</v>
+        <v>3.860942601033774</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.473684210526316</v>
+        <v>1.341443683443271</v>
       </c>
     </row>
     <row r="17">
@@ -6052,262 +6052,262 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.65789473684211</v>
+        <v>29.00029864198176</v>
       </c>
       <c r="C17" t="n">
-        <v>15.52631578947368</v>
+        <v>14.21692025671701</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9223684210526315</v>
+        <v>0.8443681666543699</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1426501276925262</v>
       </c>
       <c r="F17" t="n">
-        <v>13.13157894736842</v>
+        <v>12.03285667365426</v>
       </c>
       <c r="G17" t="n">
-        <v>6.526315789473684</v>
+        <v>5.970219399331822</v>
       </c>
       <c r="H17" t="n">
-        <v>1.157894736842105</v>
+        <v>1.055215108915044</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3028947368421053</v>
+        <v>0.2775819967365376</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1494736842105263</v>
+        <v>0.1368856285649368</v>
       </c>
       <c r="K17" t="n">
-        <v>5.605263157894737</v>
+        <v>5.13706249300323</v>
       </c>
       <c r="L17" t="n">
-        <v>2.736842105263158</v>
+        <v>2.508237921773293</v>
       </c>
       <c r="M17" t="n">
-        <v>61.23684210526316</v>
+        <v>56.20664502325192</v>
       </c>
       <c r="N17" t="n">
-        <v>12.60526315789474</v>
+        <v>11.58846285252719</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8347368421052631</v>
+        <v>0.7663758147014065</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.169448443231886</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.60526315789474</v>
+        <v>18.90836953056597</v>
       </c>
       <c r="R17" t="n">
-        <v>15.05263157894737</v>
+        <v>13.81554378754786</v>
       </c>
       <c r="S17" t="n">
-        <v>1.894736842105263</v>
+        <v>1.737231833253774</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2505263157894737</v>
+        <v>0.2298230946992138</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1660526315789474</v>
+        <v>0.1522902668054812</v>
       </c>
       <c r="V17" t="n">
-        <v>3.631578947368421</v>
+        <v>3.328116703622076</v>
       </c>
       <c r="W17" t="n">
-        <v>2.289473684210526</v>
+        <v>2.097787580794762</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5</v>
+        <v>31.64038243111747</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.815789473684211</v>
+        <v>6.238423872610491</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4647368421052632</v>
+        <v>0.4252689567003305</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04754001761000801</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.39473684210526</v>
+        <v>9.535064418238697</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>7.799780517249732</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7942396423591128</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1213157894736842</v>
+        <v>0.1111223332119688</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.08947368421052632</v>
+        <v>0.08211827346213621</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.473684210526316</v>
+        <v>1.352560360913401</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.8995117324738359</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.6578947368421</v>
+        <v>13.42921185480884</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07133121293256313</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.03684210526315789</v>
+        <v>0.03374638860338812</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02437449626041062</v>
       </c>
       <c r="AM17" t="n">
-        <v>5.868421052631579</v>
+        <v>5.369346097870892</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.894736842105263</v>
+        <v>4.479728245486314</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0721083255012272</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01400461045580034</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01078947368421053</v>
+        <v>0.009926324990528632</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0239517515915939</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>21.73684210526316</v>
+        <v>19.92427122821849</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09580903632719977</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.05894736842105264</v>
+        <v>0.05412531466483143</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.105263157894737</v>
+        <v>6.525538302163214</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.184210526315789</v>
+        <v>5.6795895017349</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04854515962060529</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.01421052631578947</v>
+        <v>0.01309964421254789</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.01026315789473684</v>
+        <v>0.009434765966786791</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0241577014752303</v>
       </c>
       <c r="BD17" t="n">
         <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>5.421052631578948</v>
+        <v>4.956740545856333</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.026315789473684</v>
+        <v>1.854037441298009</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1144736842105263</v>
+        <v>0.1045503215542277</v>
       </c>
       <c r="BH17" t="n">
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>2.157894736842105</v>
+        <v>1.977320237091649</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.263157894736842</v>
+        <v>1.156478604286093</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1919042274058714</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.04368421052631579</v>
+        <v>0.04003382631223148</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.02210526315789474</v>
+        <v>0.0202790971967446</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7971315577174871</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3630986687075132</v>
       </c>
       <c r="BP17" t="n">
-        <v>8.026315789473685</v>
+        <v>7.376270637958244</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.421052631578947</v>
+        <v>1.303690311398149</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.1115789473684211</v>
+        <v>0.1024144006008804</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04818550965856782</v>
       </c>
       <c r="BT17" t="n">
-        <v>3.710526315789474</v>
+        <v>3.410675448341282</v>
       </c>
       <c r="BU17" t="n">
-        <v>2.815789473684211</v>
+        <v>2.587390261610268</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3140045716643957</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.05052631578947368</v>
+        <v>0.04633385487547284</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.03631578947368421</v>
+        <v>0.03324049661436783</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4806246145603333</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3841525140148603</v>
       </c>
       <c r="CA17" t="n">
-        <v>15.39473684210526</v>
+        <v>14.15710712188346</v>
       </c>
       <c r="CB17" t="n">
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.004879746182642995</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>5.5</v>
+        <v>5.060017260373638</v>
       </c>
       <c r="CF17" t="n">
-        <v>5.315789473684211</v>
+        <v>4.889824829641121</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04742790941760039</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.00131578947368421</v>
+        <v>0.001241364421033354</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.001052631578947368</v>
+        <v>0.0009940226579263016</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -6316,70 +6316,70 @@
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>9.394736842105264</v>
+        <v>8.601480820207321</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5709881704578676</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07199000190323697</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>2.289473684210526</v>
+        <v>2.095874542660054</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1.842105263157895</v>
+        <v>1.690253017251577</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04803982884796804</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.01394936002241303</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.01131578947368421</v>
+        <v>0.01038993772578748</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1429869307133435</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1197944017999908</v>
       </c>
       <c r="CW17" t="n">
-        <v>25.05263157894737</v>
+        <v>22.94036777116242</v>
       </c>
       <c r="CX17" t="n">
-        <v>23.84210526315789</v>
+        <v>21.83070764932705</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.817368421052632</v>
+        <v>1.663668146691113</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1674592348593956</v>
       </c>
       <c r="DA17" t="n">
-        <v>6.026315789473684</v>
+        <v>5.513519297780506</v>
       </c>
       <c r="DB17" t="n">
-        <v>2.052631578947369</v>
+        <v>1.871376686378317</v>
       </c>
       <c r="DC17" t="n">
-        <v>1.131578947368421</v>
+        <v>1.037348942458339</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.431578947368421</v>
+        <v>0.3950045356388581</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.1355263157894737</v>
+        <v>0.1237409869783808</v>
       </c>
       <c r="DF17" t="n">
-        <v>5.736842105263158</v>
+        <v>5.249910609095969</v>
       </c>
       <c r="DG17" t="n">
-        <v>1.894736842105263</v>
+        <v>1.728227990465933</v>
       </c>
     </row>
     <row r="18">
@@ -6389,334 +6389,334 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.35135135135135</v>
+        <v>32.4525146668047</v>
       </c>
       <c r="C18" t="n">
-        <v>19.37837837837838</v>
+        <v>17.78879828430782</v>
       </c>
       <c r="D18" t="n">
-        <v>1.120810810810811</v>
+        <v>1.028882614352001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3179610676583407</v>
       </c>
       <c r="F18" t="n">
-        <v>14.02702702702703</v>
+        <v>12.87794844749885</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>6.426209701969505</v>
       </c>
       <c r="H18" t="n">
-        <v>1.378378378378378</v>
+        <v>1.265894221563877</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3537837837837838</v>
+        <v>0.3250049225949679</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1683783783783784</v>
+        <v>0.1546674206985963</v>
       </c>
       <c r="K18" t="n">
-        <v>6.405405405405405</v>
+        <v>5.880446272526299</v>
       </c>
       <c r="L18" t="n">
-        <v>3.135135135135135</v>
+        <v>2.880537944073789</v>
       </c>
       <c r="M18" t="n">
-        <v>56.94594594594594</v>
+        <v>52.24405811361792</v>
       </c>
       <c r="N18" t="n">
-        <v>11.86486486486486</v>
+        <v>10.86398657680493</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7818918918918919</v>
+        <v>0.7168647139671492</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2214375695912909</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.08108108108108</v>
+        <v>18.42211607891295</v>
       </c>
       <c r="R18" t="n">
-        <v>15.05405405405405</v>
+        <v>13.79751993481422</v>
       </c>
       <c r="S18" t="n">
-        <v>1.783783783783784</v>
+        <v>1.641227991897726</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2381081081081081</v>
+        <v>0.218371670908483</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1708108108108108</v>
+        <v>0.156694603475037</v>
       </c>
       <c r="V18" t="n">
-        <v>3.189189189189189</v>
+        <v>2.921772425681481</v>
       </c>
       <c r="W18" t="n">
-        <v>2.378378378378379</v>
+        <v>2.178032748101367</v>
       </c>
       <c r="X18" t="n">
-        <v>37.64864864864865</v>
+        <v>34.51785130347383</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.297297297297297</v>
+        <v>6.687596355490326</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.4848648648648649</v>
+        <v>0.444620506636184</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1471607512880924</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.16216216216216</v>
+        <v>10.23211291505993</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.216216216216216</v>
+        <v>8.445568870084658</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.7700451136452194</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.1289189189189189</v>
+        <v>0.1178880018272545</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.09081081081081081</v>
+        <v>0.08313601776729498</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.72972972972973</v>
+        <v>1.582668907046898</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.135135135135135</v>
+        <v>1.038481172142073</v>
       </c>
       <c r="AI18" t="n">
-        <v>16.37837837837838</v>
+        <v>14.98409846477515</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04889742279378932</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0518918918918919</v>
+        <v>0.0474712482151923</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02476564817479925</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.810810810810811</v>
+        <v>6.226801144284716</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.864864864864865</v>
+        <v>5.362373075459274</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1954202951214397</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.02073513735906824</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.01581053961948809</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02421921294016401</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02421921294016401</v>
       </c>
       <c r="AT18" t="n">
-        <v>28.48648648648649</v>
+        <v>26.17499244713888</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1961905702215554</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.06189189189189189</v>
+        <v>0.05658250114576125</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>10.40540540540541</v>
+        <v>9.562050033489214</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.432432432432432</v>
+        <v>8.665498169260735</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1475703635441498</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.01783783783783784</v>
+        <v>0.01628892354426404</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01229771821807719</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04856926512231479</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04856926512231479</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.054054054054054</v>
+        <v>4.616740013841562</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.054054054054054</v>
+        <v>1.879149407592331</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.1021621621621622</v>
+        <v>0.09343035801774859</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02431654303055454</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.810810810810811</v>
+        <v>1.654346405480221</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.108108108108108</v>
+        <v>1.014224647606474</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.197556193073002</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.03810810810810811</v>
+        <v>0.03488719834259751</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.02079182042705976</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6917270961881309</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4207724762187412</v>
       </c>
       <c r="BP18" t="n">
-        <v>8.891891891891891</v>
+        <v>8.140691738477329</v>
       </c>
       <c r="BQ18" t="n">
-        <v>2.135135135135135</v>
+        <v>1.959409736393375</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.1413513513513514</v>
+        <v>0.1294202853372718</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07404917351285073</v>
       </c>
       <c r="BT18" t="n">
-        <v>3.891891891891892</v>
+        <v>3.564240574765486</v>
       </c>
       <c r="BU18" t="n">
-        <v>3.216216216216216</v>
+        <v>2.947897502551013</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3690585189168182</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.05945945945945946</v>
+        <v>0.05451530972382519</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.04810810810810811</v>
+        <v>0.04413035368360078</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7468575134727645</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.572716810960424</v>
       </c>
       <c r="CA18" t="n">
-        <v>17.64864864864865</v>
+        <v>16.19192859501304</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02476564817479925</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.007837837837837838</v>
+        <v>0.007124340407970676</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>6.837837837837838</v>
+        <v>6.267917386019869</v>
       </c>
       <c r="CF18" t="n">
-        <v>6.486486486486487</v>
+        <v>5.949537798048025</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1724554237765231</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.003243243243243244</v>
+        <v>0.002951378104045549</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.002702702702702703</v>
+        <v>0.002463366478737376</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02476564817479925</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02476564817479925</v>
       </c>
       <c r="CL18" t="n">
-        <v>7.594594594594595</v>
+        <v>6.966931021759043</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5442643778391066</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.05945945945945946</v>
+        <v>0.05447991526043475</v>
       </c>
       <c r="CO18" t="n">
         <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.594594594594595</v>
+        <v>1.455257347947204</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.297297297297297</v>
+        <v>1.185653683840278</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07294193388637345</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.0127027027027027</v>
+        <v>0.01163870409507011</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.009677461177845275</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1990371473394988</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1990371473394988</v>
       </c>
       <c r="CW18" t="n">
-        <v>24.2972972972973</v>
+        <v>22.28736571708142</v>
       </c>
       <c r="CX18" t="n">
-        <v>23.62162162162162</v>
+        <v>21.6679045314993</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.908378378378378</v>
+        <v>1.751719773787532</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2213627156245745</v>
       </c>
       <c r="DA18" t="n">
-        <v>6.189189189189189</v>
+        <v>5.671671746852408</v>
       </c>
       <c r="DB18" t="n">
-        <v>2.351351351351351</v>
+        <v>2.153663254660943</v>
       </c>
       <c r="DC18" t="n">
-        <v>1.135135135135135</v>
+        <v>1.035443831754803</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.5002702702702703</v>
+        <v>0.458429301726703</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.1637837837837838</v>
+        <v>0.1495248368573276</v>
       </c>
       <c r="DF18" t="n">
-        <v>6.027027027027027</v>
+        <v>5.524426683971719</v>
       </c>
       <c r="DG18" t="n">
-        <v>2.297297297297297</v>
+        <v>2.102979227365934</v>
       </c>
     </row>
     <row r="19">
@@ -6726,262 +6726,262 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.78947368421053</v>
+        <v>22.51992289377562</v>
       </c>
       <c r="C19" t="n">
-        <v>13.68421052631579</v>
+        <v>12.42406113969172</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8452631578947368</v>
+        <v>0.7676635157980281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.117118098205701</v>
       </c>
       <c r="F19" t="n">
-        <v>10.57894736842105</v>
+        <v>9.615401236507756</v>
       </c>
       <c r="G19" t="n">
-        <v>5.368421052631579</v>
+        <v>4.866035069974613</v>
       </c>
       <c r="H19" t="n">
-        <v>1.289473684210526</v>
+        <v>1.166816315083668</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3002631578947368</v>
+        <v>0.2729614548867192</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1663157894736842</v>
+        <v>0.1510365478597026</v>
       </c>
       <c r="K19" t="n">
-        <v>4.631578947368421</v>
+        <v>4.208823606930548</v>
       </c>
       <c r="L19" t="n">
-        <v>2.421052631578947</v>
+        <v>2.198650457106203</v>
       </c>
       <c r="M19" t="n">
-        <v>64.84210526315789</v>
+        <v>58.95222448894796</v>
       </c>
       <c r="N19" t="n">
-        <v>13.10526315789474</v>
+        <v>11.89709432762492</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8944736842105264</v>
+        <v>0.8128318278033706</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2839131460583431</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.07894736842105</v>
+        <v>20.05355445655782</v>
       </c>
       <c r="R19" t="n">
-        <v>16.89473684210526</v>
+        <v>15.33893629625763</v>
       </c>
       <c r="S19" t="n">
-        <v>2.289473684210526</v>
+        <v>2.073392253367062</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2560526315789474</v>
+        <v>0.2326559990125763</v>
       </c>
       <c r="U19" t="n">
-        <v>0.185</v>
+        <v>0.1681254800031778</v>
       </c>
       <c r="V19" t="n">
-        <v>3.315789473684211</v>
+        <v>3.01027975050257</v>
       </c>
       <c r="W19" t="n">
-        <v>2.210526315789474</v>
+        <v>2.011346465227771</v>
       </c>
       <c r="X19" t="n">
-        <v>42.92105263157895</v>
+        <v>39.00544988193353</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.342105263157895</v>
+        <v>6.665508698404677</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.5115789473684211</v>
+        <v>0.4642862106033673</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1190429083579878</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.3421052631579</v>
+        <v>12.11928733771792</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.36842105263158</v>
+        <v>10.32063827618064</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.473684210526316</v>
+        <v>1.336644280066962</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1434210526315789</v>
+        <v>0.1300130702961921</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.115</v>
+        <v>0.1042481411066182</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.947368421052632</v>
+        <v>1.762518933648622</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.526315789473684</v>
+        <v>1.381205827053593</v>
       </c>
       <c r="AI19" t="n">
-        <v>17.39473684210526</v>
+        <v>15.82619929716245</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09827802375927948</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.06026315789473684</v>
+        <v>0.05491112421652161</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02309933535512405</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.842105263157895</v>
+        <v>7.137415075574586</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.631578947368421</v>
+        <v>6.040580181506492</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1419706511795325</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.02342105263157895</v>
+        <v>0.02134814194308161</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.01763157894736842</v>
+        <v>0.01609164113444242</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0487455279654139</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0487455279654139</v>
       </c>
       <c r="AT19" t="n">
-        <v>19.21052631578947</v>
+        <v>17.47747516657094</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1447009826289839</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.065</v>
+        <v>0.05915702062963807</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02354295280945903</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.842105263157895</v>
+        <v>6.237875573742529</v>
       </c>
       <c r="AY19" t="n">
-        <v>6.131578947368421</v>
+        <v>5.587361368293869</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1877225939838766</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.02394736842105263</v>
+        <v>0.02183431375454273</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.02026315789473684</v>
+        <v>0.01845455640305787</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04767286180361056</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02309933535512405</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.263157894736842</v>
+        <v>3.867975069484613</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.131578947368421</v>
+        <v>1.026868136852954</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.08473684210526317</v>
+        <v>0.07696322885341289</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02411834065816272</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.631578947368421</v>
+        <v>1.483661091731963</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1</v>
+        <v>0.9080741668441629</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1222136517690163</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.03631578947368421</v>
+        <v>0.03314317029341661</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.02394736842105263</v>
+        <v>0.02188944743891805</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3597982729871238</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2161171095458324</v>
       </c>
       <c r="BP19" t="n">
-        <v>13.81578947368421</v>
+        <v>12.54189508857908</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.789473684210526</v>
+        <v>1.623384202004936</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.1813157894736842</v>
+        <v>0.1646936104011695</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04797294083236088</v>
       </c>
       <c r="BT19" t="n">
-        <v>5.947368421052632</v>
+        <v>5.391142636468074</v>
       </c>
       <c r="BU19" t="n">
-        <v>4.815789473684211</v>
+        <v>4.361339862812541</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7598548979276023</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.0681578947368421</v>
+        <v>0.06184491408982742</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.05657894736842105</v>
+        <v>0.05132836210394319</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4303816493381861</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3829848474560406</v>
       </c>
       <c r="CA19" t="n">
-        <v>12.5</v>
+        <v>11.35504519150398</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02314493357404064</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.0118421052631579</v>
+        <v>0.01074568844578442</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>4.631578947368421</v>
+        <v>4.206712042754978</v>
       </c>
       <c r="CF19" t="n">
-        <v>4.394736842105263</v>
+        <v>3.990089823474471</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07034946118665522</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.002368421052631579</v>
+        <v>0.00214490246298667</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.002368421052631579</v>
+        <v>0.00214490246298667</v>
       </c>
       <c r="CJ19" t="n">
         <v>0</v>
@@ -6990,70 +6990,70 @@
         <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>7.736842105263158</v>
+        <v>7.031998492967775</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6010040112826536</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.0668421052631579</v>
+        <v>0.06079729802941559</v>
       </c>
       <c r="CO19" t="n">
         <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>2.447368421052631</v>
+        <v>2.221686147999512</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.842105263157895</v>
+        <v>1.676432458302171</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04894491210633076</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.02236842105263158</v>
+        <v>0.02034339475584607</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.015</v>
+        <v>0.01373735230497149</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2179592669751112</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1228686405333728</v>
       </c>
       <c r="CW19" t="n">
-        <v>24.78947368421053</v>
+        <v>22.45857300739547</v>
       </c>
       <c r="CX19" t="n">
-        <v>24</v>
+        <v>21.74430595281203</v>
       </c>
       <c r="CY19" t="n">
-        <v>1.807631578947368</v>
+        <v>1.63629469619909</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1645026918146628</v>
       </c>
       <c r="DA19" t="n">
-        <v>6.710526315789473</v>
+        <v>6.080076974652624</v>
       </c>
       <c r="DB19" t="n">
-        <v>2.657894736842105</v>
+        <v>2.407924823096148</v>
       </c>
       <c r="DC19" t="n">
-        <v>1.289473684210526</v>
+        <v>1.164404635020269</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.4968421052631579</v>
+        <v>0.4495328421554952</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.1821052631578947</v>
+        <v>0.1649035116005186</v>
       </c>
       <c r="DF19" t="n">
-        <v>6.526315789473684</v>
+        <v>5.914981057112905</v>
       </c>
       <c r="DG19" t="n">
-        <v>2.552631578947369</v>
+        <v>2.313515376559464</v>
       </c>
     </row>
     <row r="20">
@@ -7063,130 +7063,130 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.26315789473684</v>
+        <v>27.62300364869529</v>
       </c>
       <c r="C20" t="n">
-        <v>13.26315789473684</v>
+        <v>12.13591479583486</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8423684210526315</v>
+        <v>0.7688209109374677</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2169126477853164</v>
       </c>
       <c r="F20" t="n">
-        <v>11.71052631578947</v>
+        <v>10.71049339821996</v>
       </c>
       <c r="G20" t="n">
-        <v>6.263157894736842</v>
+        <v>5.736301812737497</v>
       </c>
       <c r="H20" t="n">
-        <v>1.105263157894737</v>
+        <v>1.024807751226598</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2676315789473684</v>
+        <v>0.2448254012259975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1410526315789474</v>
+        <v>0.1291988516127943</v>
       </c>
       <c r="K20" t="n">
-        <v>4.236842105263158</v>
+        <v>3.877660955949123</v>
       </c>
       <c r="L20" t="n">
-        <v>1.947368421052632</v>
+        <v>1.786677084953287</v>
       </c>
       <c r="M20" t="n">
-        <v>63.47368421052632</v>
+        <v>58.08044186963188</v>
       </c>
       <c r="N20" t="n">
-        <v>11.44736842105263</v>
+        <v>10.46787178404962</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8207894736842105</v>
+        <v>0.7510470702324771</v>
       </c>
       <c r="P20" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0681762745554528</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.89473684210526</v>
+        <v>18.20193344835827</v>
       </c>
       <c r="R20" t="n">
-        <v>15.28947368421053</v>
+        <v>13.98020053357324</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.372766672525025</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2205263157894737</v>
+        <v>0.2016977612176723</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1613157894736842</v>
+        <v>0.1474995645452954</v>
       </c>
       <c r="V20" t="n">
-        <v>2.868421052631579</v>
+        <v>2.629087299956598</v>
       </c>
       <c r="W20" t="n">
-        <v>1.947368421052632</v>
+        <v>1.783934809776555</v>
       </c>
       <c r="X20" t="n">
-        <v>41.07894736842105</v>
+        <v>37.62666382453549</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.263157894736842</v>
+        <v>5.723743550454421</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.4392105263157895</v>
+        <v>0.4022017210782139</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1177798194935939</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.68421052631579</v>
+        <v>10.72333305744744</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.815789473684211</v>
+        <v>9.010057249048581</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7211711252969115</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1057894736842105</v>
+        <v>0.09677256535439459</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.07289473684210526</v>
+        <v>0.06685487475011685</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.236842105263158</v>
+        <v>1.127688221876932</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7470821653786172</v>
       </c>
       <c r="AI20" t="n">
-        <v>20.18421052631579</v>
+        <v>18.46698643085857</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.06937569018004823</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.05078947368421052</v>
+        <v>0.04647022786663951</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02618486514794449</v>
       </c>
       <c r="AM20" t="n">
-        <v>8.289473684210526</v>
+        <v>7.601189525622599</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.868421052631579</v>
+        <v>6.306590966828668</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1228646044826111</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.01842105263157895</v>
+        <v>0.01692982784091739</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.01188878032207051</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7195,31 +7195,31 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>35.05263157894737</v>
+        <v>32.114691499519</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0729712697099905</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.07973684210526316</v>
+        <v>0.07312407703417792</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02618486514794449</v>
       </c>
       <c r="AX20" t="n">
-        <v>12.5</v>
+        <v>11.46891074994242</v>
       </c>
       <c r="AY20" t="n">
-        <v>11.42105263157895</v>
+        <v>10.48472016695967</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1954305117687424</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.02289473684210526</v>
+        <v>0.02105100891045411</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.01868421052631579</v>
+        <v>0.01717400899571027</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
@@ -7228,97 +7228,97 @@
         <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.263157894736842</v>
+        <v>4.821390700875673</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.263157894736842</v>
+        <v>1.1520543302597</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.09342105263157896</v>
+        <v>0.08543593131078549</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02311782384218232</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.5</v>
+        <v>1.375194254013677</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1</v>
+        <v>0.9185718893180114</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1685841638740278</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.02526315789473684</v>
+        <v>0.02316976127367239</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.01631578947368421</v>
+        <v>0.01499732140829663</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3381746314757026</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.169972116049563</v>
       </c>
       <c r="BP20" t="n">
-        <v>9.736842105263158</v>
+        <v>8.899145150787422</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.447368421052632</v>
+        <v>1.321631389768884</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.1181578947368421</v>
+        <v>0.1080509899384708</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>4.157894736842105</v>
+        <v>3.803923291249788</v>
       </c>
       <c r="BU20" t="n">
-        <v>3.657894736842105</v>
+        <v>3.347561009926578</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2935769611453536</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.04710526315789474</v>
+        <v>0.04320972121559988</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.0418421052631579</v>
+        <v>0.03841772530289206</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.5</v>
+        <v>0.4583289205648681</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3872831843814022</v>
       </c>
       <c r="CA20" t="n">
-        <v>19.92105263157895</v>
+        <v>18.28032072371717</v>
       </c>
       <c r="CB20" t="n">
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.008126419779986569</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>7.736842105263158</v>
+        <v>7.104803436474183</v>
       </c>
       <c r="CF20" t="n">
-        <v>7.605263157894737</v>
+        <v>6.984462472745594</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1445727408969324</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.001653535645139594</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.001653535645139594</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -7327,70 +7327,70 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>9.684210526315789</v>
+        <v>8.851745252483278</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3612102353437676</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.06342105263157895</v>
+        <v>0.05781612425615525</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>2.236842105263158</v>
+        <v>2.035359673640577</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.894736842105263</v>
+        <v>1.724948422283265</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07109989320088669</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.01447368421052632</v>
+        <v>0.01312162443691121</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0118421052631579</v>
+        <v>0.01075559482748819</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.131578947368421</v>
+        <v>0.120910404394804</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09684573138825471</v>
       </c>
       <c r="CW20" t="n">
-        <v>22.86842105263158</v>
+        <v>20.89591189930345</v>
       </c>
       <c r="CX20" t="n">
-        <v>21.86842105263158</v>
+        <v>19.98709437766552</v>
       </c>
       <c r="CY20" t="n">
-        <v>1.784736842105263</v>
+        <v>1.631592594222344</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09669518318043524</v>
       </c>
       <c r="DA20" t="n">
-        <v>6.078947368421052</v>
+        <v>5.563948725407867</v>
       </c>
       <c r="DB20" t="n">
-        <v>2.289473684210526</v>
+        <v>2.099627865844203</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8474889620585554</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.4157894736842105</v>
+        <v>0.3813710324670139</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.1344736842105263</v>
+        <v>0.1235468555029208</v>
       </c>
       <c r="DF20" t="n">
-        <v>5.736842105263158</v>
+        <v>5.254132394651207</v>
       </c>
       <c r="DG20" t="n">
-        <v>2.157894736842105</v>
+        <v>1.980303038700159</v>
       </c>
     </row>
     <row r="21">
@@ -7400,163 +7400,163 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.11111111111111</v>
+        <v>26.78022483549675</v>
       </c>
       <c r="C21" t="n">
-        <v>12.33333333333333</v>
+        <v>11.34162554550357</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7730555555555556</v>
+        <v>0.7105052858799453</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1528587797962488</v>
       </c>
       <c r="F21" t="n">
-        <v>10.83333333333333</v>
+        <v>9.967836170136216</v>
       </c>
       <c r="G21" t="n">
-        <v>5.138888888888889</v>
+        <v>4.717924871148152</v>
       </c>
       <c r="H21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.076059077391962</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2171476920272193</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.09809425070489172</v>
       </c>
       <c r="K21" t="n">
-        <v>3.638888888888889</v>
+        <v>3.353672695375268</v>
       </c>
       <c r="L21" t="n">
-        <v>1.722222222222222</v>
+        <v>1.58726300230745</v>
       </c>
       <c r="M21" t="n">
-        <v>57.19444444444444</v>
+        <v>52.58909730113601</v>
       </c>
       <c r="N21" t="n">
-        <v>9.277777777777779</v>
+        <v>8.520735502306524</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6872222222222223</v>
+        <v>0.6310408085480939</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1007372327948827</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.02777777777778</v>
+        <v>16.57707669350775</v>
       </c>
       <c r="R21" t="n">
-        <v>12.94444444444444</v>
+        <v>11.90441876406623</v>
       </c>
       <c r="S21" t="n">
-        <v>1.527777777777778</v>
+        <v>1.393504104554198</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1930555555555556</v>
+        <v>0.1769053944161998</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1377777777777778</v>
+        <v>0.1260536764992564</v>
       </c>
       <c r="V21" t="n">
-        <v>2.333333333333333</v>
+        <v>2.133326738398774</v>
       </c>
       <c r="W21" t="n">
-        <v>1.805555555555556</v>
+        <v>1.647970803158397</v>
       </c>
       <c r="X21" t="n">
-        <v>34.97222222222222</v>
+        <v>32.12894067114124</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.361111111111111</v>
+        <v>4.915341545972151</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3930555555555555</v>
+        <v>0.3606051020538177</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02513017430288896</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.52777777777778</v>
+        <v>9.66840466391354</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.25</v>
+        <v>8.488472462069726</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.083333333333333</v>
+        <v>0.9843890803744877</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08638888888888889</v>
+        <v>0.07901143724323012</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07027777777777777</v>
+        <v>0.0641732293714708</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8343600763564409</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6557019247992903</v>
       </c>
       <c r="AI21" t="n">
-        <v>15.05555555555556</v>
+        <v>13.8355433609644</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02511805485783181</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.03373751241841959</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.916666666666667</v>
+        <v>5.446984527665417</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.777777777777778</v>
+        <v>4.400877555637884</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07694990782256896</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.01277777777777778</v>
+        <v>0.01183763535898087</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.009166666666666667</v>
+        <v>0.008504688046057291</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02511805485783181</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02511805485783181</v>
       </c>
       <c r="AT21" t="n">
-        <v>31.25</v>
+        <v>28.78672069989212</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.06055555555555556</v>
+        <v>0.05588133847946129</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02562788313685289</v>
       </c>
       <c r="AX21" t="n">
-        <v>10.08333333333333</v>
+        <v>9.286142208389419</v>
       </c>
       <c r="AY21" t="n">
-        <v>8.944444444444445</v>
+        <v>8.236619429548579</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1554092435584923</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.01436671107531016</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.01361111111111111</v>
+        <v>0.01256488341836259</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
@@ -7565,97 +7565,97 @@
         <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>5.25</v>
+        <v>4.820684170341121</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.972222222222222</v>
+        <v>1.808476821513912</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.1116666666666667</v>
+        <v>0.1024142461737171</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>1.833333333333333</v>
+        <v>1.682835681173048</v>
       </c>
       <c r="BJ21" t="n">
-        <v>1.194444444444444</v>
+        <v>1.095023328479803</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.25</v>
+        <v>0.2305457132674277</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.03555555555555556</v>
+        <v>0.03259292963214389</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.02212953307521147</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6110142033528434</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3820667744641771</v>
       </c>
       <c r="BP21" t="n">
-        <v>8.75</v>
+        <v>8.033613661644138</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.361111111111111</v>
+        <v>1.252311216949356</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.1119444444444445</v>
+        <v>0.1027390236265744</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>3.722222222222222</v>
+        <v>3.409164372866902</v>
       </c>
       <c r="BU21" t="n">
-        <v>2.833333333333333</v>
+        <v>2.59275734425353</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3800576780406491</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.040700681028088</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03044692416434377</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5363421138766088</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3294752658712684</v>
       </c>
       <c r="CA21" t="n">
-        <v>17.77777777777778</v>
+        <v>16.3052485718896</v>
       </c>
       <c r="CB21" t="n">
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.007777777777777778</v>
+        <v>0.007114758668453739</v>
       </c>
       <c r="CD21" t="n">
         <v>0</v>
       </c>
       <c r="CE21" t="n">
-        <v>6.833333333333333</v>
+        <v>6.266230307672092</v>
       </c>
       <c r="CF21" t="n">
-        <v>6.638888888888889</v>
+        <v>6.089768403955667</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1022311201383353</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0025</v>
+        <v>0.002307787764915659</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.002043712556296244</v>
       </c>
       <c r="CJ21" t="n">
         <v>0</v>
@@ -7664,70 +7664,70 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>9.388888888888889</v>
+        <v>8.607789001276174</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4324700401556247</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.06361111111111112</v>
+        <v>0.05821987861240282</v>
       </c>
       <c r="CO21" t="n">
         <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>2.305555555555555</v>
+        <v>2.121648252085258</v>
       </c>
       <c r="CQ21" t="n">
-        <v>1.972222222222222</v>
+        <v>1.813685720067868</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1533178535019314</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.01416666666666667</v>
+        <v>0.01301978559546778</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.010182673786785</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07673284503614633</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05080999144842339</v>
       </c>
       <c r="CW21" t="n">
-        <v>18.16666666666667</v>
+        <v>16.6724370243154</v>
       </c>
       <c r="CX21" t="n">
-        <v>17.38888888888889</v>
+        <v>15.95058449174624</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.418888888888889</v>
+        <v>1.300246603803384</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2046193137112649</v>
       </c>
       <c r="DA21" t="n">
-        <v>4.694444444444445</v>
+        <v>4.31137776027009</v>
       </c>
       <c r="DB21" t="n">
-        <v>1.805555555555556</v>
+        <v>1.657123806699614</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8873002608773546</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.3644444444444445</v>
+        <v>0.3340762981965546</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.1227777777777778</v>
+        <v>0.1124690041519107</v>
       </c>
       <c r="DF21" t="n">
-        <v>4.472222222222222</v>
+        <v>4.104655319054285</v>
       </c>
       <c r="DG21" t="n">
-        <v>1.666666666666667</v>
+        <v>1.528343428642149</v>
       </c>
     </row>
   </sheetData>
